--- a/inputs/heartland_alliance_community_data.xlsx
+++ b/inputs/heartland_alliance_community_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polinarozhkova/Desktop/GitHub/moud_access/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE87D493-91C6-8E46-8961-939B5AD7555A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E9977F-D09E-5F4B-80E9-9D39EE5FA94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1320" windowWidth="28260" windowHeight="17500"/>
+    <workbookView xWindow="540" yWindow="500" windowWidth="28260" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 0" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="171">
   <si>
     <t>Indicator</t>
   </si>
@@ -538,7 +539,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1373,10 +1374,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -23408,4 +23411,7767 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E28A9A-C351-FE41-B5E0-0BF3B747BB1B}">
+  <dimension ref="A1:CB32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2">
+        <v>17.3</v>
+      </c>
+      <c r="D2">
+        <v>13.4</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>13.5</v>
+      </c>
+      <c r="H2">
+        <v>25.1</v>
+      </c>
+      <c r="I2">
+        <v>26.2</v>
+      </c>
+      <c r="J2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K2">
+        <v>13.4</v>
+      </c>
+      <c r="L2">
+        <v>15.1</v>
+      </c>
+      <c r="M2">
+        <v>6.3</v>
+      </c>
+      <c r="N2">
+        <v>14.6</v>
+      </c>
+      <c r="O2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="P2">
+        <v>11.7</v>
+      </c>
+      <c r="Q2">
+        <v>14.5</v>
+      </c>
+      <c r="R2">
+        <v>25.3</v>
+      </c>
+      <c r="S2">
+        <v>22.6</v>
+      </c>
+      <c r="T2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="U2">
+        <v>34.9</v>
+      </c>
+      <c r="V2">
+        <v>7</v>
+      </c>
+      <c r="W2">
+        <v>45.3</v>
+      </c>
+      <c r="X2">
+        <v>14.6</v>
+      </c>
+      <c r="Y2">
+        <v>14.8</v>
+      </c>
+      <c r="Z2">
+        <v>3.3</v>
+      </c>
+      <c r="AA2">
+        <v>41.2</v>
+      </c>
+      <c r="AB2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AC2">
+        <v>47.2</v>
+      </c>
+      <c r="AD2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AE2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AF2">
+        <v>24.8</v>
+      </c>
+      <c r="AG2">
+        <v>33.4</v>
+      </c>
+      <c r="AH2">
+        <v>15.7</v>
+      </c>
+      <c r="AI2">
+        <v>12.8</v>
+      </c>
+      <c r="AJ2">
+        <v>27.3</v>
+      </c>
+      <c r="AK2">
+        <v>25.5</v>
+      </c>
+      <c r="AL2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AM2">
+        <v>8.1</v>
+      </c>
+      <c r="AN2">
+        <v>23.4</v>
+      </c>
+      <c r="AO2">
+        <v>8.5</v>
+      </c>
+      <c r="AP2">
+        <v>9</v>
+      </c>
+      <c r="AQ2">
+        <v>7.5</v>
+      </c>
+      <c r="AR2">
+        <v>12</v>
+      </c>
+      <c r="AS2">
+        <v>9.4</v>
+      </c>
+      <c r="AT2">
+        <v>14</v>
+      </c>
+      <c r="AU2">
+        <v>13</v>
+      </c>
+      <c r="AV2">
+        <v>11.7</v>
+      </c>
+      <c r="AW2">
+        <v>11.6</v>
+      </c>
+      <c r="AX2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AY2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AZ2">
+        <v>7.6</v>
+      </c>
+      <c r="BA2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="BB2">
+        <v>29.1</v>
+      </c>
+      <c r="BC2">
+        <v>4.3</v>
+      </c>
+      <c r="BD2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="BE2">
+        <v>14.6</v>
+      </c>
+      <c r="BF2">
+        <v>6.9</v>
+      </c>
+      <c r="BG2">
+        <v>28.6</v>
+      </c>
+      <c r="BH2">
+        <v>10.9</v>
+      </c>
+      <c r="BI2">
+        <v>7.7</v>
+      </c>
+      <c r="BJ2">
+        <v>18</v>
+      </c>
+      <c r="BK2">
+        <v>47.6</v>
+      </c>
+      <c r="BL2">
+        <v>21.5</v>
+      </c>
+      <c r="BM2">
+        <v>23.2</v>
+      </c>
+      <c r="BN2">
+        <v>29.3</v>
+      </c>
+      <c r="BO2">
+        <v>32.9</v>
+      </c>
+      <c r="BP2">
+        <v>24</v>
+      </c>
+      <c r="BQ2">
+        <v>29.9</v>
+      </c>
+      <c r="BR2">
+        <v>20.9</v>
+      </c>
+      <c r="BS2">
+        <v>20</v>
+      </c>
+      <c r="BT2">
+        <v>42.2</v>
+      </c>
+      <c r="BU2">
+        <v>11.5</v>
+      </c>
+      <c r="BV2">
+        <v>30.9</v>
+      </c>
+      <c r="BW2">
+        <v>37</v>
+      </c>
+      <c r="BX2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="BY2">
+        <v>22.4</v>
+      </c>
+      <c r="BZ2">
+        <v>17</v>
+      </c>
+      <c r="CA2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="CB2">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>2020</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2.1</v>
+      </c>
+      <c r="F3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G3">
+        <v>5.4</v>
+      </c>
+      <c r="H3">
+        <v>13.6</v>
+      </c>
+      <c r="I3">
+        <v>10.7</v>
+      </c>
+      <c r="J3">
+        <v>5.6</v>
+      </c>
+      <c r="K3">
+        <v>3.7</v>
+      </c>
+      <c r="L3">
+        <v>4.3</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>9.4</v>
+      </c>
+      <c r="P3">
+        <v>5.6</v>
+      </c>
+      <c r="Q3">
+        <v>5.5</v>
+      </c>
+      <c r="R3">
+        <v>10.5</v>
+      </c>
+      <c r="S3">
+        <v>7.9</v>
+      </c>
+      <c r="T3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U3">
+        <v>21</v>
+      </c>
+      <c r="V3">
+        <v>2.5</v>
+      </c>
+      <c r="W3">
+        <v>22.3</v>
+      </c>
+      <c r="X3">
+        <v>5.5</v>
+      </c>
+      <c r="Y3">
+        <v>6.3</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>23.2</v>
+      </c>
+      <c r="AB3">
+        <v>2.1</v>
+      </c>
+      <c r="AC3">
+        <v>14.2</v>
+      </c>
+      <c r="AD3">
+        <v>6.5</v>
+      </c>
+      <c r="AE3">
+        <v>3.4</v>
+      </c>
+      <c r="AF3">
+        <v>10.3</v>
+      </c>
+      <c r="AG3">
+        <v>17.8</v>
+      </c>
+      <c r="AH3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AI3">
+        <v>6.7</v>
+      </c>
+      <c r="AJ3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AK3">
+        <v>17.8</v>
+      </c>
+      <c r="AL3">
+        <v>3.3</v>
+      </c>
+      <c r="AM3">
+        <v>4</v>
+      </c>
+      <c r="AN3">
+        <v>13.7</v>
+      </c>
+      <c r="AO3">
+        <v>4.5</v>
+      </c>
+      <c r="AP3">
+        <v>5.2</v>
+      </c>
+      <c r="AQ3">
+        <v>3.4</v>
+      </c>
+      <c r="AR3">
+        <v>5.3</v>
+      </c>
+      <c r="AS3">
+        <v>7</v>
+      </c>
+      <c r="AT3">
+        <v>6.1</v>
+      </c>
+      <c r="AU3">
+        <v>3.9</v>
+      </c>
+      <c r="AV3">
+        <v>4.7</v>
+      </c>
+      <c r="AW3">
+        <v>6.9</v>
+      </c>
+      <c r="AX3">
+        <v>3.4</v>
+      </c>
+      <c r="AY3">
+        <v>5.3</v>
+      </c>
+      <c r="AZ3">
+        <v>2.4</v>
+      </c>
+      <c r="BA3">
+        <v>12.8</v>
+      </c>
+      <c r="BB3">
+        <v>13.4</v>
+      </c>
+      <c r="BC3">
+        <v>1.7</v>
+      </c>
+      <c r="BD3">
+        <v>20</v>
+      </c>
+      <c r="BE3">
+        <v>5.6</v>
+      </c>
+      <c r="BF3">
+        <v>3.2</v>
+      </c>
+      <c r="BG3">
+        <v>10.6</v>
+      </c>
+      <c r="BH3">
+        <v>4</v>
+      </c>
+      <c r="BI3">
+        <v>3.9</v>
+      </c>
+      <c r="BJ3">
+        <v>12.1</v>
+      </c>
+      <c r="BK3">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="BL3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="BM3">
+        <v>10.7</v>
+      </c>
+      <c r="BN3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="BO3">
+        <v>13.3</v>
+      </c>
+      <c r="BP3">
+        <v>10.6</v>
+      </c>
+      <c r="BQ3">
+        <v>14.9</v>
+      </c>
+      <c r="BR3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="BS3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BT3">
+        <v>19.5</v>
+      </c>
+      <c r="BU3">
+        <v>3.4</v>
+      </c>
+      <c r="BV3">
+        <v>12.8</v>
+      </c>
+      <c r="BW3">
+        <v>19.7</v>
+      </c>
+      <c r="BX3">
+        <v>5.4</v>
+      </c>
+      <c r="BY3">
+        <v>10.6</v>
+      </c>
+      <c r="BZ3">
+        <v>6.8</v>
+      </c>
+      <c r="CA3">
+        <v>4.8</v>
+      </c>
+      <c r="CB3">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="C4">
+        <v>-0.4</v>
+      </c>
+      <c r="D4">
+        <v>-0.7</v>
+      </c>
+      <c r="E4">
+        <v>-0.6</v>
+      </c>
+      <c r="F4">
+        <v>-1.4</v>
+      </c>
+      <c r="G4">
+        <v>-0.6</v>
+      </c>
+      <c r="H4">
+        <v>1.8</v>
+      </c>
+      <c r="I4">
+        <v>1.6</v>
+      </c>
+      <c r="J4">
+        <v>-1.9</v>
+      </c>
+      <c r="K4">
+        <v>-2</v>
+      </c>
+      <c r="L4">
+        <v>0.3</v>
+      </c>
+      <c r="M4">
+        <v>0.2</v>
+      </c>
+      <c r="N4">
+        <v>-5</v>
+      </c>
+      <c r="O4">
+        <v>-3</v>
+      </c>
+      <c r="P4">
+        <v>7.6</v>
+      </c>
+      <c r="Q4">
+        <v>-3.7</v>
+      </c>
+      <c r="R4">
+        <v>1.6</v>
+      </c>
+      <c r="S4">
+        <v>-0.3</v>
+      </c>
+      <c r="T4">
+        <v>-2.1</v>
+      </c>
+      <c r="U4">
+        <v>0.5</v>
+      </c>
+      <c r="V4">
+        <v>0.3</v>
+      </c>
+      <c r="W4">
+        <v>-4.8</v>
+      </c>
+      <c r="X4">
+        <v>-3</v>
+      </c>
+      <c r="Y4">
+        <v>1.8</v>
+      </c>
+      <c r="Z4">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AA4">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="AB4">
+        <v>2.6</v>
+      </c>
+      <c r="AC4">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="AD4">
+        <v>-6.1</v>
+      </c>
+      <c r="AE4">
+        <v>-3.3</v>
+      </c>
+      <c r="AF4">
+        <v>4.5</v>
+      </c>
+      <c r="AG4">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AH4">
+        <v>-0.2</v>
+      </c>
+      <c r="AI4">
+        <v>-1.3</v>
+      </c>
+      <c r="AJ4">
+        <v>-2.4</v>
+      </c>
+      <c r="AK4">
+        <v>0.9</v>
+      </c>
+      <c r="AL4">
+        <v>0.1</v>
+      </c>
+      <c r="AM4">
+        <v>-1.3</v>
+      </c>
+      <c r="AN4">
+        <v>0.1</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>-2</v>
+      </c>
+      <c r="AR4">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AS4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AT4">
+        <v>-1.8</v>
+      </c>
+      <c r="AU4">
+        <v>0.5</v>
+      </c>
+      <c r="AV4">
+        <v>0.8</v>
+      </c>
+      <c r="AW4">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AX4">
+        <v>-1.8</v>
+      </c>
+      <c r="AY4">
+        <v>1.2</v>
+      </c>
+      <c r="AZ4">
+        <v>6.1</v>
+      </c>
+      <c r="BA4">
+        <v>-0.7</v>
+      </c>
+      <c r="BB4">
+        <v>-1.6</v>
+      </c>
+      <c r="BC4">
+        <v>1.7</v>
+      </c>
+      <c r="BD4">
+        <v>-2.4</v>
+      </c>
+      <c r="BE4">
+        <v>-1</v>
+      </c>
+      <c r="BF4">
+        <v>2.5</v>
+      </c>
+      <c r="BG4">
+        <v>-3.5</v>
+      </c>
+      <c r="BH4">
+        <v>12.3</v>
+      </c>
+      <c r="BI4">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="BJ4">
+        <v>5</v>
+      </c>
+      <c r="BK4">
+        <v>0.8</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>1.5</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="BP4">
+        <v>-2.7</v>
+      </c>
+      <c r="BQ4">
+        <v>0.4</v>
+      </c>
+      <c r="BR4">
+        <v>0.8</v>
+      </c>
+      <c r="BS4">
+        <v>0.4</v>
+      </c>
+      <c r="BT4">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="BU4">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0.5</v>
+      </c>
+      <c r="BX4">
+        <v>0.3</v>
+      </c>
+      <c r="BY4">
+        <v>-3.3</v>
+      </c>
+      <c r="BZ4">
+        <v>0.4</v>
+      </c>
+      <c r="CA4">
+        <v>-0.2</v>
+      </c>
+      <c r="CB4">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="C5">
+        <v>51.4</v>
+      </c>
+      <c r="D5">
+        <v>49.4</v>
+      </c>
+      <c r="E5">
+        <v>45.4</v>
+      </c>
+      <c r="F5">
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>51.3</v>
+      </c>
+      <c r="H5">
+        <v>53.4</v>
+      </c>
+      <c r="I5">
+        <v>53.3</v>
+      </c>
+      <c r="J5">
+        <v>56.3</v>
+      </c>
+      <c r="K5">
+        <v>50.8</v>
+      </c>
+      <c r="L5">
+        <v>50.3</v>
+      </c>
+      <c r="M5">
+        <v>53.2</v>
+      </c>
+      <c r="N5">
+        <v>49.8</v>
+      </c>
+      <c r="O5">
+        <v>48.9</v>
+      </c>
+      <c r="P5">
+        <v>50.3</v>
+      </c>
+      <c r="Q5">
+        <v>57.8</v>
+      </c>
+      <c r="R5">
+        <v>56.6</v>
+      </c>
+      <c r="S5">
+        <v>52.6</v>
+      </c>
+      <c r="T5">
+        <v>48.7</v>
+      </c>
+      <c r="U5">
+        <v>54.1</v>
+      </c>
+      <c r="V5">
+        <v>50.7</v>
+      </c>
+      <c r="W5">
+        <v>56.3</v>
+      </c>
+      <c r="X5">
+        <v>53</v>
+      </c>
+      <c r="Y5">
+        <v>48.6</v>
+      </c>
+      <c r="Z5">
+        <v>51.8</v>
+      </c>
+      <c r="AA5">
+        <v>55.1</v>
+      </c>
+      <c r="AB5">
+        <v>51.5</v>
+      </c>
+      <c r="AC5">
+        <v>51.5</v>
+      </c>
+      <c r="AD5">
+        <v>51.1</v>
+      </c>
+      <c r="AE5">
+        <v>48.9</v>
+      </c>
+      <c r="AF5">
+        <v>59.2</v>
+      </c>
+      <c r="AG5">
+        <v>56.9</v>
+      </c>
+      <c r="AH5">
+        <v>50.7</v>
+      </c>
+      <c r="AI5">
+        <v>49</v>
+      </c>
+      <c r="AJ5">
+        <v>52.4</v>
+      </c>
+      <c r="AK5">
+        <v>54.2</v>
+      </c>
+      <c r="AL5">
+        <v>51</v>
+      </c>
+      <c r="AM5">
+        <v>50.9</v>
+      </c>
+      <c r="AN5">
+        <v>54.4</v>
+      </c>
+      <c r="AO5">
+        <v>48.3</v>
+      </c>
+      <c r="AP5">
+        <v>50</v>
+      </c>
+      <c r="AQ5">
+        <v>52.3</v>
+      </c>
+      <c r="AR5">
+        <v>50.3</v>
+      </c>
+      <c r="AS5">
+        <v>49.7</v>
+      </c>
+      <c r="AT5">
+        <v>49.4</v>
+      </c>
+      <c r="AU5">
+        <v>50.1</v>
+      </c>
+      <c r="AV5">
+        <v>53.4</v>
+      </c>
+      <c r="AW5">
+        <v>54.1</v>
+      </c>
+      <c r="AX5">
+        <v>52</v>
+      </c>
+      <c r="AY5">
+        <v>51.7</v>
+      </c>
+      <c r="AZ5">
+        <v>55.7</v>
+      </c>
+      <c r="BA5">
+        <v>51.2</v>
+      </c>
+      <c r="BB5">
+        <v>48.8</v>
+      </c>
+      <c r="BC5">
+        <v>51</v>
+      </c>
+      <c r="BD5">
+        <v>55.3</v>
+      </c>
+      <c r="BE5">
+        <v>53.8</v>
+      </c>
+      <c r="BF5">
+        <v>51.9</v>
+      </c>
+      <c r="BG5">
+        <v>56.5</v>
+      </c>
+      <c r="BH5">
+        <v>46.1</v>
+      </c>
+      <c r="BI5">
+        <v>51.5</v>
+      </c>
+      <c r="BJ5">
+        <v>59.9</v>
+      </c>
+      <c r="BK5">
+        <v>61.3</v>
+      </c>
+      <c r="BL5">
+        <v>51.1</v>
+      </c>
+      <c r="BM5">
+        <v>52.4</v>
+      </c>
+      <c r="BN5">
+        <v>54.6</v>
+      </c>
+      <c r="BO5">
+        <v>56.5</v>
+      </c>
+      <c r="BP5">
+        <v>42.4</v>
+      </c>
+      <c r="BQ5">
+        <v>55.5</v>
+      </c>
+      <c r="BR5">
+        <v>49.5</v>
+      </c>
+      <c r="BS5">
+        <v>56.3</v>
+      </c>
+      <c r="BT5">
+        <v>55.5</v>
+      </c>
+      <c r="BU5">
+        <v>50.5</v>
+      </c>
+      <c r="BV5">
+        <v>54.8</v>
+      </c>
+      <c r="BW5">
+        <v>49.2</v>
+      </c>
+      <c r="BX5">
+        <v>48</v>
+      </c>
+      <c r="BY5">
+        <v>55.4</v>
+      </c>
+      <c r="BZ5">
+        <v>50.4</v>
+      </c>
+      <c r="CA5">
+        <v>49.4</v>
+      </c>
+      <c r="CB5">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>2020</v>
+      </c>
+      <c r="C6">
+        <v>48.6</v>
+      </c>
+      <c r="D6">
+        <v>50.6</v>
+      </c>
+      <c r="E6">
+        <v>54.6</v>
+      </c>
+      <c r="F6">
+        <v>46</v>
+      </c>
+      <c r="G6">
+        <v>48.7</v>
+      </c>
+      <c r="H6">
+        <v>46.6</v>
+      </c>
+      <c r="I6">
+        <v>46.7</v>
+      </c>
+      <c r="J6">
+        <v>43.7</v>
+      </c>
+      <c r="K6">
+        <v>49.2</v>
+      </c>
+      <c r="L6">
+        <v>49.7</v>
+      </c>
+      <c r="M6">
+        <v>46.8</v>
+      </c>
+      <c r="N6">
+        <v>50.2</v>
+      </c>
+      <c r="O6">
+        <v>51.1</v>
+      </c>
+      <c r="P6">
+        <v>49.7</v>
+      </c>
+      <c r="Q6">
+        <v>42.2</v>
+      </c>
+      <c r="R6">
+        <v>43.4</v>
+      </c>
+      <c r="S6">
+        <v>47.4</v>
+      </c>
+      <c r="T6">
+        <v>51.3</v>
+      </c>
+      <c r="U6">
+        <v>45.9</v>
+      </c>
+      <c r="V6">
+        <v>49.3</v>
+      </c>
+      <c r="W6">
+        <v>43.7</v>
+      </c>
+      <c r="X6">
+        <v>47</v>
+      </c>
+      <c r="Y6">
+        <v>51.4</v>
+      </c>
+      <c r="Z6">
+        <v>48.2</v>
+      </c>
+      <c r="AA6">
+        <v>44.9</v>
+      </c>
+      <c r="AB6">
+        <v>48.5</v>
+      </c>
+      <c r="AC6">
+        <v>48.5</v>
+      </c>
+      <c r="AD6">
+        <v>48.9</v>
+      </c>
+      <c r="AE6">
+        <v>51.1</v>
+      </c>
+      <c r="AF6">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="AG6">
+        <v>43.1</v>
+      </c>
+      <c r="AH6">
+        <v>49.3</v>
+      </c>
+      <c r="AI6">
+        <v>51</v>
+      </c>
+      <c r="AJ6">
+        <v>47.6</v>
+      </c>
+      <c r="AK6">
+        <v>45.8</v>
+      </c>
+      <c r="AL6">
+        <v>49</v>
+      </c>
+      <c r="AM6">
+        <v>49.1</v>
+      </c>
+      <c r="AN6">
+        <v>45.6</v>
+      </c>
+      <c r="AO6">
+        <v>51.7</v>
+      </c>
+      <c r="AP6">
+        <v>50</v>
+      </c>
+      <c r="AQ6">
+        <v>47.7</v>
+      </c>
+      <c r="AR6">
+        <v>49.7</v>
+      </c>
+      <c r="AS6">
+        <v>50.3</v>
+      </c>
+      <c r="AT6">
+        <v>50.6</v>
+      </c>
+      <c r="AU6">
+        <v>49.9</v>
+      </c>
+      <c r="AV6">
+        <v>46.6</v>
+      </c>
+      <c r="AW6">
+        <v>45.9</v>
+      </c>
+      <c r="AX6">
+        <v>48</v>
+      </c>
+      <c r="AY6">
+        <v>48.3</v>
+      </c>
+      <c r="AZ6">
+        <v>44.3</v>
+      </c>
+      <c r="BA6">
+        <v>48.8</v>
+      </c>
+      <c r="BB6">
+        <v>51.2</v>
+      </c>
+      <c r="BC6">
+        <v>49</v>
+      </c>
+      <c r="BD6">
+        <v>44.7</v>
+      </c>
+      <c r="BE6">
+        <v>46.2</v>
+      </c>
+      <c r="BF6">
+        <v>48.1</v>
+      </c>
+      <c r="BG6">
+        <v>43.5</v>
+      </c>
+      <c r="BH6">
+        <v>53.9</v>
+      </c>
+      <c r="BI6">
+        <v>48.5</v>
+      </c>
+      <c r="BJ6">
+        <v>40.1</v>
+      </c>
+      <c r="BK6">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="BL6">
+        <v>48.9</v>
+      </c>
+      <c r="BM6">
+        <v>47.6</v>
+      </c>
+      <c r="BN6">
+        <v>45.4</v>
+      </c>
+      <c r="BO6">
+        <v>43.5</v>
+      </c>
+      <c r="BP6">
+        <v>57.6</v>
+      </c>
+      <c r="BQ6">
+        <v>44.5</v>
+      </c>
+      <c r="BR6">
+        <v>50.5</v>
+      </c>
+      <c r="BS6">
+        <v>43.7</v>
+      </c>
+      <c r="BT6">
+        <v>44.5</v>
+      </c>
+      <c r="BU6">
+        <v>49.5</v>
+      </c>
+      <c r="BV6">
+        <v>45.2</v>
+      </c>
+      <c r="BW6">
+        <v>50.8</v>
+      </c>
+      <c r="BX6">
+        <v>52</v>
+      </c>
+      <c r="BY6">
+        <v>44.6</v>
+      </c>
+      <c r="BZ6">
+        <v>49.6</v>
+      </c>
+      <c r="CA6">
+        <v>50.6</v>
+      </c>
+      <c r="CB6">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7">
+        <v>6.8</v>
+      </c>
+      <c r="D7">
+        <v>12.6</v>
+      </c>
+      <c r="E7">
+        <v>4.5</v>
+      </c>
+      <c r="F7">
+        <v>70.8</v>
+      </c>
+      <c r="G7">
+        <v>0.8</v>
+      </c>
+      <c r="H7">
+        <v>0.3</v>
+      </c>
+      <c r="I7">
+        <v>0.3</v>
+      </c>
+      <c r="J7">
+        <v>1.3</v>
+      </c>
+      <c r="K7">
+        <v>4.5</v>
+      </c>
+      <c r="L7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>40.4</v>
+      </c>
+      <c r="O7">
+        <v>10.5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7">
+        <v>0.1</v>
+      </c>
+      <c r="R7">
+        <v>0.3</v>
+      </c>
+      <c r="S7">
+        <v>0.5</v>
+      </c>
+      <c r="T7">
+        <v>0.6</v>
+      </c>
+      <c r="U7">
+        <v>14.6</v>
+      </c>
+      <c r="V7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="W7">
+        <v>0.9</v>
+      </c>
+      <c r="X7">
+        <v>0.3</v>
+      </c>
+      <c r="Y7">
+        <v>13.7</v>
+      </c>
+      <c r="Z7">
+        <v>2.6</v>
+      </c>
+      <c r="AA7">
+        <v>0.6</v>
+      </c>
+      <c r="AB7">
+        <v>10.3</v>
+      </c>
+      <c r="AC7">
+        <v>0.2</v>
+      </c>
+      <c r="AD7">
+        <v>0.7</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>0.7</v>
+      </c>
+      <c r="AG7">
+        <v>0.1</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AJ7">
+        <v>0.5</v>
+      </c>
+      <c r="AK7">
+        <v>14.2</v>
+      </c>
+      <c r="AL7">
+        <v>8.6</v>
+      </c>
+      <c r="AM7">
+        <v>11.6</v>
+      </c>
+      <c r="AN7">
+        <v>6</v>
+      </c>
+      <c r="AO7">
+        <v>7</v>
+      </c>
+      <c r="AP7">
+        <v>7.3</v>
+      </c>
+      <c r="AQ7">
+        <v>9.1</v>
+      </c>
+      <c r="AR7">
+        <v>4.2</v>
+      </c>
+      <c r="AS7">
+        <v>21.4</v>
+      </c>
+      <c r="AT7">
+        <v>4.8</v>
+      </c>
+      <c r="AU7">
+        <v>29.9</v>
+      </c>
+      <c r="AV7">
+        <v>2.5</v>
+      </c>
+      <c r="AW7">
+        <v>0.4</v>
+      </c>
+      <c r="AX7">
+        <v>1.6</v>
+      </c>
+      <c r="AY7">
+        <v>14.3</v>
+      </c>
+      <c r="AZ7">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="BA7">
+        <v>18.5</v>
+      </c>
+      <c r="BB7">
+        <v>1.9</v>
+      </c>
+      <c r="BC7">
+        <v>6</v>
+      </c>
+      <c r="BD7">
+        <v>0.2</v>
+      </c>
+      <c r="BE7">
+        <v>26.3</v>
+      </c>
+      <c r="BF7">
+        <v>4.3</v>
+      </c>
+      <c r="BG7">
+        <v>1.6</v>
+      </c>
+      <c r="BH7">
+        <v>15</v>
+      </c>
+      <c r="BI7">
+        <v>5.9</v>
+      </c>
+      <c r="BJ7">
+        <v>0.1</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>5.4</v>
+      </c>
+      <c r="BM7">
+        <v>0.3</v>
+      </c>
+      <c r="BN7">
+        <v>0.4</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0.4</v>
+      </c>
+      <c r="BQ7">
+        <v>0.2</v>
+      </c>
+      <c r="BR7">
+        <v>10.4</v>
+      </c>
+      <c r="BS7">
+        <v>0.2</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>2.8</v>
+      </c>
+      <c r="BV7">
+        <v>0.1</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0.2</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>21</v>
+      </c>
+      <c r="CA7">
+        <v>5.4</v>
+      </c>
+      <c r="CB7">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8">
+        <v>2020</v>
+      </c>
+      <c r="C8">
+        <v>28.8</v>
+      </c>
+      <c r="D8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E8">
+        <v>0.8</v>
+      </c>
+      <c r="F8">
+        <v>8.6</v>
+      </c>
+      <c r="G8">
+        <v>45.1</v>
+      </c>
+      <c r="H8">
+        <v>94.6</v>
+      </c>
+      <c r="I8">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="J8">
+        <v>94.7</v>
+      </c>
+      <c r="K8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L8">
+        <v>2.5</v>
+      </c>
+      <c r="M8">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="N8">
+        <v>2.4</v>
+      </c>
+      <c r="O8">
+        <v>1.7</v>
+      </c>
+      <c r="P8">
+        <v>88.9</v>
+      </c>
+      <c r="Q8">
+        <v>93.4</v>
+      </c>
+      <c r="R8">
+        <v>96.5</v>
+      </c>
+      <c r="S8">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="T8">
+        <v>2.5</v>
+      </c>
+      <c r="U8">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="V8">
+        <v>2.1</v>
+      </c>
+      <c r="W8">
+        <v>84.9</v>
+      </c>
+      <c r="X8">
+        <v>1.9</v>
+      </c>
+      <c r="Y8">
+        <v>13.3</v>
+      </c>
+      <c r="Z8">
+        <v>0.4</v>
+      </c>
+      <c r="AA8">
+        <v>92.1</v>
+      </c>
+      <c r="AB8">
+        <v>0.6</v>
+      </c>
+      <c r="AC8">
+        <v>86.6</v>
+      </c>
+      <c r="AD8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AE8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AF8">
+        <v>89.6</v>
+      </c>
+      <c r="AG8">
+        <v>95.6</v>
+      </c>
+      <c r="AH8">
+        <v>6.8</v>
+      </c>
+      <c r="AI8">
+        <v>4.5</v>
+      </c>
+      <c r="AJ8">
+        <v>33.1</v>
+      </c>
+      <c r="AK8">
+        <v>24.4</v>
+      </c>
+      <c r="AL8">
+        <v>2.7</v>
+      </c>
+      <c r="AM8">
+        <v>2.6</v>
+      </c>
+      <c r="AN8">
+        <v>66</v>
+      </c>
+      <c r="AO8">
+        <v>4.2</v>
+      </c>
+      <c r="AP8">
+        <v>3.8</v>
+      </c>
+      <c r="AQ8">
+        <v>3</v>
+      </c>
+      <c r="AR8">
+        <v>4.5</v>
+      </c>
+      <c r="AS8">
+        <v>7</v>
+      </c>
+      <c r="AT8">
+        <v>3.1</v>
+      </c>
+      <c r="AU8">
+        <v>1.2</v>
+      </c>
+      <c r="AV8">
+        <v>3.1</v>
+      </c>
+      <c r="AW8">
+        <v>60.4</v>
+      </c>
+      <c r="AX8">
+        <v>3.2</v>
+      </c>
+      <c r="AY8">
+        <v>7</v>
+      </c>
+      <c r="AZ8">
+        <v>22.5</v>
+      </c>
+      <c r="BA8">
+        <v>24.2</v>
+      </c>
+      <c r="BB8">
+        <v>23.1</v>
+      </c>
+      <c r="BC8">
+        <v>2.6</v>
+      </c>
+      <c r="BD8">
+        <v>82.6</v>
+      </c>
+      <c r="BE8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF8">
+        <v>0.7</v>
+      </c>
+      <c r="BG8">
+        <v>86.7</v>
+      </c>
+      <c r="BH8">
+        <v>6.3</v>
+      </c>
+      <c r="BI8">
+        <v>1.6</v>
+      </c>
+      <c r="BJ8">
+        <v>80.5</v>
+      </c>
+      <c r="BK8">
+        <v>95.1</v>
+      </c>
+      <c r="BL8">
+        <v>27</v>
+      </c>
+      <c r="BM8">
+        <v>95.3</v>
+      </c>
+      <c r="BN8">
+        <v>75.3</v>
+      </c>
+      <c r="BO8">
+        <v>63.5</v>
+      </c>
+      <c r="BP8">
+        <v>12.8</v>
+      </c>
+      <c r="BQ8">
+        <v>93</v>
+      </c>
+      <c r="BR8">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="BS8">
+        <v>95.4</v>
+      </c>
+      <c r="BT8">
+        <v>91.7</v>
+      </c>
+      <c r="BU8">
+        <v>0.7</v>
+      </c>
+      <c r="BV8">
+        <v>86.1</v>
+      </c>
+      <c r="BW8">
+        <v>92.4</v>
+      </c>
+      <c r="BX8">
+        <v>2.5</v>
+      </c>
+      <c r="BY8">
+        <v>90.1</v>
+      </c>
+      <c r="BZ8">
+        <v>11.6</v>
+      </c>
+      <c r="CA8">
+        <v>6.2</v>
+      </c>
+      <c r="CB8">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <v>2020</v>
+      </c>
+      <c r="C9">
+        <v>28.6</v>
+      </c>
+      <c r="D9">
+        <v>45.9</v>
+      </c>
+      <c r="E9">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="F9">
+        <v>5.7</v>
+      </c>
+      <c r="G9">
+        <v>42.7</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>17.2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>53.9</v>
+      </c>
+      <c r="L9">
+        <v>79.8</v>
+      </c>
+      <c r="M9">
+        <v>5.9</v>
+      </c>
+      <c r="N9">
+        <v>20.8</v>
+      </c>
+      <c r="O9">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="P9">
+        <v>7.2</v>
+      </c>
+      <c r="Q9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R9">
+        <v>0.9</v>
+      </c>
+      <c r="S9">
+        <v>55.4</v>
+      </c>
+      <c r="T9">
+        <v>57</v>
+      </c>
+      <c r="U9">
+        <v>5.4</v>
+      </c>
+      <c r="V9">
+        <v>32.1</v>
+      </c>
+      <c r="W9">
+        <v>4.8</v>
+      </c>
+      <c r="X9">
+        <v>84.7</v>
+      </c>
+      <c r="Y9">
+        <v>15.9</v>
+      </c>
+      <c r="Z9">
+        <v>9.9</v>
+      </c>
+      <c r="AA9">
+        <v>3.9</v>
+      </c>
+      <c r="AB9">
+        <v>13.2</v>
+      </c>
+      <c r="AC9">
+        <v>6.6</v>
+      </c>
+      <c r="AD9">
+        <v>91</v>
+      </c>
+      <c r="AE9">
+        <v>52.8</v>
+      </c>
+      <c r="AF9">
+        <v>3.3</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>56.2</v>
+      </c>
+      <c r="AI9">
+        <v>82.5</v>
+      </c>
+      <c r="AJ9">
+        <v>55.4</v>
+      </c>
+      <c r="AK9">
+        <v>7.5</v>
+      </c>
+      <c r="AL9">
+        <v>41.2</v>
+      </c>
+      <c r="AM9">
+        <v>24.4</v>
+      </c>
+      <c r="AN9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO9">
+        <v>9</v>
+      </c>
+      <c r="AP9">
+        <v>6.2</v>
+      </c>
+      <c r="AQ9">
+        <v>17.8</v>
+      </c>
+      <c r="AR9">
+        <v>36.4</v>
+      </c>
+      <c r="AS9">
+        <v>9.4</v>
+      </c>
+      <c r="AT9">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="AU9">
+        <v>52.8</v>
+      </c>
+      <c r="AV9">
+        <v>55.6</v>
+      </c>
+      <c r="AW9">
+        <v>5</v>
+      </c>
+      <c r="AX9">
+        <v>10.5</v>
+      </c>
+      <c r="AY9">
+        <v>6.1</v>
+      </c>
+      <c r="AZ9">
+        <v>4.2</v>
+      </c>
+      <c r="BA9">
+        <v>10.1</v>
+      </c>
+      <c r="BB9">
+        <v>61.8</v>
+      </c>
+      <c r="BC9">
+        <v>12</v>
+      </c>
+      <c r="BD9">
+        <v>11.3</v>
+      </c>
+      <c r="BE9">
+        <v>18.7</v>
+      </c>
+      <c r="BF9">
+        <v>15.1</v>
+      </c>
+      <c r="BG9">
+        <v>5.8</v>
+      </c>
+      <c r="BH9">
+        <v>10.6</v>
+      </c>
+      <c r="BI9">
+        <v>42.5</v>
+      </c>
+      <c r="BJ9">
+        <v>4.3</v>
+      </c>
+      <c r="BK9">
+        <v>3.8</v>
+      </c>
+      <c r="BL9">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="BM9">
+        <v>1.3</v>
+      </c>
+      <c r="BN9">
+        <v>20.6</v>
+      </c>
+      <c r="BO9">
+        <v>31.1</v>
+      </c>
+      <c r="BP9">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="BQ9">
+        <v>2.6</v>
+      </c>
+      <c r="BR9">
+        <v>15</v>
+      </c>
+      <c r="BS9">
+        <v>1.5</v>
+      </c>
+      <c r="BT9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BU9">
+        <v>81.7</v>
+      </c>
+      <c r="BV9">
+        <v>10.5</v>
+      </c>
+      <c r="BW9">
+        <v>3.5</v>
+      </c>
+      <c r="BX9">
+        <v>85.1</v>
+      </c>
+      <c r="BY9">
+        <v>6.9</v>
+      </c>
+      <c r="BZ9">
+        <v>19.7</v>
+      </c>
+      <c r="CA9">
+        <v>20.9</v>
+      </c>
+      <c r="CB9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10">
+        <v>2020</v>
+      </c>
+      <c r="C10">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D10">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E10">
+        <v>14.7</v>
+      </c>
+      <c r="F10">
+        <v>14.1</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>5.3</v>
+      </c>
+      <c r="J10">
+        <v>0.8</v>
+      </c>
+      <c r="K10">
+        <v>35.6</v>
+      </c>
+      <c r="L10">
+        <v>14.3</v>
+      </c>
+      <c r="M10">
+        <v>56</v>
+      </c>
+      <c r="N10">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="O10">
+        <v>7.4</v>
+      </c>
+      <c r="P10">
+        <v>2.5</v>
+      </c>
+      <c r="Q10">
+        <v>0.9</v>
+      </c>
+      <c r="R10">
+        <v>0.9</v>
+      </c>
+      <c r="S10">
+        <v>2.4</v>
+      </c>
+      <c r="T10">
+        <v>38.9</v>
+      </c>
+      <c r="U10">
+        <v>10.6</v>
+      </c>
+      <c r="V10">
+        <v>59.7</v>
+      </c>
+      <c r="W10">
+        <v>5.9</v>
+      </c>
+      <c r="X10">
+        <v>12.8</v>
+      </c>
+      <c r="Y10">
+        <v>53.5</v>
+      </c>
+      <c r="Z10">
+        <v>82.7</v>
+      </c>
+      <c r="AA10">
+        <v>1.2</v>
+      </c>
+      <c r="AB10">
+        <v>73.8</v>
+      </c>
+      <c r="AC10">
+        <v>5</v>
+      </c>
+      <c r="AD10">
+        <v>3.6</v>
+      </c>
+      <c r="AE10">
+        <v>40.9</v>
+      </c>
+      <c r="AF10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AG10">
+        <v>0.9</v>
+      </c>
+      <c r="AH10">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AI10">
+        <v>9.9</v>
+      </c>
+      <c r="AJ10">
+        <v>9</v>
+      </c>
+      <c r="AK10">
+        <v>47</v>
+      </c>
+      <c r="AL10">
+        <v>44</v>
+      </c>
+      <c r="AM10">
+        <v>58.2</v>
+      </c>
+      <c r="AN10">
+        <v>20.9</v>
+      </c>
+      <c r="AO10">
+        <v>76.2</v>
+      </c>
+      <c r="AP10">
+        <v>80</v>
+      </c>
+      <c r="AQ10">
+        <v>64.3</v>
+      </c>
+      <c r="AR10">
+        <v>51.6</v>
+      </c>
+      <c r="AS10">
+        <v>58.9</v>
+      </c>
+      <c r="AT10">
+        <v>22.3</v>
+      </c>
+      <c r="AU10">
+        <v>15.4</v>
+      </c>
+      <c r="AV10">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="AW10">
+        <v>30.9</v>
+      </c>
+      <c r="AX10">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AY10">
+        <v>69.2</v>
+      </c>
+      <c r="AZ10">
+        <v>51.4</v>
+      </c>
+      <c r="BA10">
+        <v>43.5</v>
+      </c>
+      <c r="BB10">
+        <v>12.4</v>
+      </c>
+      <c r="BC10">
+        <v>74.7</v>
+      </c>
+      <c r="BD10">
+        <v>4.8</v>
+      </c>
+      <c r="BE10">
+        <v>48.8</v>
+      </c>
+      <c r="BF10">
+        <v>77.3</v>
+      </c>
+      <c r="BG10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="BH10">
+        <v>66</v>
+      </c>
+      <c r="BI10">
+        <v>47</v>
+      </c>
+      <c r="BJ10">
+        <v>11.9</v>
+      </c>
+      <c r="BK10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BL10">
+        <v>44.3</v>
+      </c>
+      <c r="BM10">
+        <v>1.5</v>
+      </c>
+      <c r="BN10">
+        <v>2.9</v>
+      </c>
+      <c r="BO10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="BP10">
+        <v>5.5</v>
+      </c>
+      <c r="BQ10">
+        <v>2.9</v>
+      </c>
+      <c r="BR10">
+        <v>53.2</v>
+      </c>
+      <c r="BS10">
+        <v>1.7</v>
+      </c>
+      <c r="BT10">
+        <v>1.8</v>
+      </c>
+      <c r="BU10">
+        <v>14.7</v>
+      </c>
+      <c r="BV10">
+        <v>1.5</v>
+      </c>
+      <c r="BW10">
+        <v>2.8</v>
+      </c>
+      <c r="BX10">
+        <v>11.9</v>
+      </c>
+      <c r="BY10">
+        <v>0.9</v>
+      </c>
+      <c r="BZ10">
+        <v>42.1</v>
+      </c>
+      <c r="CA10">
+        <v>63.2</v>
+      </c>
+      <c r="CB10">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>2020</v>
+      </c>
+      <c r="C11">
+        <v>6.1</v>
+      </c>
+      <c r="D11">
+        <v>5.8</v>
+      </c>
+      <c r="E11">
+        <v>6.7</v>
+      </c>
+      <c r="F11">
+        <v>5.2</v>
+      </c>
+      <c r="G11">
+        <v>6.1</v>
+      </c>
+      <c r="H11">
+        <v>6.3</v>
+      </c>
+      <c r="I11">
+        <v>6.8</v>
+      </c>
+      <c r="J11">
+        <v>6.2</v>
+      </c>
+      <c r="K11">
+        <v>5.6</v>
+      </c>
+      <c r="L11">
+        <v>6.5</v>
+      </c>
+      <c r="M11">
+        <v>6.4</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>7.1</v>
+      </c>
+      <c r="P11">
+        <v>0.9</v>
+      </c>
+      <c r="Q11">
+        <v>3.1</v>
+      </c>
+      <c r="R11">
+        <v>5.4</v>
+      </c>
+      <c r="S11">
+        <v>8.1</v>
+      </c>
+      <c r="T11">
+        <v>6.5</v>
+      </c>
+      <c r="U11">
+        <v>5.3</v>
+      </c>
+      <c r="V11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W11">
+        <v>7.7</v>
+      </c>
+      <c r="X11">
+        <v>8</v>
+      </c>
+      <c r="Y11">
+        <v>4.3</v>
+      </c>
+      <c r="Z11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AA11">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>6.8</v>
+      </c>
+      <c r="AC11">
+        <v>3.9</v>
+      </c>
+      <c r="AD11">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE11">
+        <v>5.8</v>
+      </c>
+      <c r="AF11">
+        <v>6.7</v>
+      </c>
+      <c r="AG11">
+        <v>6.3</v>
+      </c>
+      <c r="AH11">
+        <v>4.2</v>
+      </c>
+      <c r="AI11">
+        <v>5.8</v>
+      </c>
+      <c r="AJ11">
+        <v>6.6</v>
+      </c>
+      <c r="AK11">
+        <v>2.9</v>
+      </c>
+      <c r="AL11">
+        <v>7</v>
+      </c>
+      <c r="AM11">
+        <v>5.4</v>
+      </c>
+      <c r="AN11">
+        <v>7.3</v>
+      </c>
+      <c r="AO11">
+        <v>5.6</v>
+      </c>
+      <c r="AP11">
+        <v>4.8</v>
+      </c>
+      <c r="AQ11">
+        <v>7.6</v>
+      </c>
+      <c r="AR11">
+        <v>6.5</v>
+      </c>
+      <c r="AS11">
+        <v>2.7</v>
+      </c>
+      <c r="AT11">
+        <v>4.7</v>
+      </c>
+      <c r="AU11">
+        <v>5.3</v>
+      </c>
+      <c r="AV11">
+        <v>6.9</v>
+      </c>
+      <c r="AW11">
+        <v>5.5</v>
+      </c>
+      <c r="AX11">
+        <v>7.2</v>
+      </c>
+      <c r="AY11">
+        <v>3.2</v>
+      </c>
+      <c r="AZ11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BA11">
+        <v>6</v>
+      </c>
+      <c r="BB11">
+        <v>7.2</v>
+      </c>
+      <c r="BC11">
+        <v>9.5</v>
+      </c>
+      <c r="BD11">
+        <v>6.3</v>
+      </c>
+      <c r="BE11">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="BF11">
+        <v>6.5</v>
+      </c>
+      <c r="BG11">
+        <v>9.6</v>
+      </c>
+      <c r="BH11">
+        <v>7.9</v>
+      </c>
+      <c r="BI11">
+        <v>5.6</v>
+      </c>
+      <c r="BJ11">
+        <v>6.5</v>
+      </c>
+      <c r="BK11">
+        <v>11.4</v>
+      </c>
+      <c r="BL11">
+        <v>6.1</v>
+      </c>
+      <c r="BM11">
+        <v>5.9</v>
+      </c>
+      <c r="BN11">
+        <v>6.7</v>
+      </c>
+      <c r="BO11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BP11">
+        <v>6.2</v>
+      </c>
+      <c r="BQ11">
+        <v>7.2</v>
+      </c>
+      <c r="BR11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="BS11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="BT11">
+        <v>7.4</v>
+      </c>
+      <c r="BU11">
+        <v>6.5</v>
+      </c>
+      <c r="BV11">
+        <v>6.3</v>
+      </c>
+      <c r="BW11">
+        <v>7.4</v>
+      </c>
+      <c r="BX11">
+        <v>7.8</v>
+      </c>
+      <c r="BY11">
+        <v>6.6</v>
+      </c>
+      <c r="BZ11">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="CA11">
+        <v>5.9</v>
+      </c>
+      <c r="CB11">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12">
+        <v>14.3</v>
+      </c>
+      <c r="D12">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E12">
+        <v>20.3</v>
+      </c>
+      <c r="F12">
+        <v>12.6</v>
+      </c>
+      <c r="G12">
+        <v>19.7</v>
+      </c>
+      <c r="H12">
+        <v>18.2</v>
+      </c>
+      <c r="I12">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J12">
+        <v>11.5</v>
+      </c>
+      <c r="K12">
+        <v>13.8</v>
+      </c>
+      <c r="L12">
+        <v>19.7</v>
+      </c>
+      <c r="M12">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="N12">
+        <v>12.8</v>
+      </c>
+      <c r="O12">
+        <v>21</v>
+      </c>
+      <c r="P12">
+        <v>11.4</v>
+      </c>
+      <c r="Q12">
+        <v>11.6</v>
+      </c>
+      <c r="R12">
+        <v>14.7</v>
+      </c>
+      <c r="S12">
+        <v>18.8</v>
+      </c>
+      <c r="T12">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="U12">
+        <v>10.7</v>
+      </c>
+      <c r="V12">
+        <v>14.9</v>
+      </c>
+      <c r="W12">
+        <v>19.8</v>
+      </c>
+      <c r="X12">
+        <v>21.2</v>
+      </c>
+      <c r="Y12">
+        <v>7</v>
+      </c>
+      <c r="Z12">
+        <v>12.3</v>
+      </c>
+      <c r="AA12">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AB12">
+        <v>18</v>
+      </c>
+      <c r="AC12">
+        <v>14.6</v>
+      </c>
+      <c r="AD12">
+        <v>20.2</v>
+      </c>
+      <c r="AE12">
+        <v>18.2</v>
+      </c>
+      <c r="AF12">
+        <v>15</v>
+      </c>
+      <c r="AG12">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AH12">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AI12">
+        <v>16.5</v>
+      </c>
+      <c r="AJ12">
+        <v>20.6</v>
+      </c>
+      <c r="AK12">
+        <v>7.8</v>
+      </c>
+      <c r="AL12">
+        <v>14.2</v>
+      </c>
+      <c r="AM12">
+        <v>15.7</v>
+      </c>
+      <c r="AN12">
+        <v>11.6</v>
+      </c>
+      <c r="AO12">
+        <v>6.5</v>
+      </c>
+      <c r="AP12">
+        <v>9.9</v>
+      </c>
+      <c r="AQ12">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AR12">
+        <v>10.5</v>
+      </c>
+      <c r="AS12">
+        <v>2.6</v>
+      </c>
+      <c r="AT12">
+        <v>13.7</v>
+      </c>
+      <c r="AU12">
+        <v>14.6</v>
+      </c>
+      <c r="AV12">
+        <v>16</v>
+      </c>
+      <c r="AW12">
+        <v>16.8</v>
+      </c>
+      <c r="AX12">
+        <v>17.5</v>
+      </c>
+      <c r="AY12">
+        <v>3.8</v>
+      </c>
+      <c r="AZ12">
+        <v>6.7</v>
+      </c>
+      <c r="BA12">
+        <v>8.4</v>
+      </c>
+      <c r="BB12">
+        <v>20.7</v>
+      </c>
+      <c r="BC12">
+        <v>17.2</v>
+      </c>
+      <c r="BD12">
+        <v>19</v>
+      </c>
+      <c r="BE12">
+        <v>13.3</v>
+      </c>
+      <c r="BF12">
+        <v>15</v>
+      </c>
+      <c r="BG12">
+        <v>21.5</v>
+      </c>
+      <c r="BH12">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="BI12">
+        <v>15</v>
+      </c>
+      <c r="BJ12">
+        <v>10.9</v>
+      </c>
+      <c r="BK12">
+        <v>24</v>
+      </c>
+      <c r="BL12">
+        <v>11.2</v>
+      </c>
+      <c r="BM12">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="BN12">
+        <v>20.5</v>
+      </c>
+      <c r="BO12">
+        <v>21.3</v>
+      </c>
+      <c r="BP12">
+        <v>17.3</v>
+      </c>
+      <c r="BQ12">
+        <v>15.3</v>
+      </c>
+      <c r="BR12">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="BS12">
+        <v>15.9</v>
+      </c>
+      <c r="BT12">
+        <v>22.4</v>
+      </c>
+      <c r="BU12">
+        <v>21</v>
+      </c>
+      <c r="BV12">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="BW12">
+        <v>18.8</v>
+      </c>
+      <c r="BX12">
+        <v>22.6</v>
+      </c>
+      <c r="BY12">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="BZ12">
+        <v>18.3</v>
+      </c>
+      <c r="CA12">
+        <v>6.9</v>
+      </c>
+      <c r="CB12">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D13">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F13">
+        <v>7.6</v>
+      </c>
+      <c r="G13">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H13">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I13">
+        <v>9.4</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M13">
+        <v>6.8</v>
+      </c>
+      <c r="N13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Q13">
+        <v>7.3</v>
+      </c>
+      <c r="R13">
+        <v>8.5</v>
+      </c>
+      <c r="S13">
+        <v>10.9</v>
+      </c>
+      <c r="T13">
+        <v>7.9</v>
+      </c>
+      <c r="U13">
+        <v>17</v>
+      </c>
+      <c r="V13">
+        <v>7.7</v>
+      </c>
+      <c r="W13">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="X13">
+        <v>10.1</v>
+      </c>
+      <c r="Y13">
+        <v>11.2</v>
+      </c>
+      <c r="Z13">
+        <v>5.5</v>
+      </c>
+      <c r="AA13">
+        <v>9</v>
+      </c>
+      <c r="AB13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AC13">
+        <v>12.6</v>
+      </c>
+      <c r="AD13">
+        <v>12.7</v>
+      </c>
+      <c r="AE13">
+        <v>6.1</v>
+      </c>
+      <c r="AF13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AG13">
+        <v>7.8</v>
+      </c>
+      <c r="AH13">
+        <v>11.3</v>
+      </c>
+      <c r="AI13">
+        <v>11.5</v>
+      </c>
+      <c r="AJ13">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AK13">
+        <v>24.6</v>
+      </c>
+      <c r="AL13">
+        <v>7</v>
+      </c>
+      <c r="AM13">
+        <v>6.2</v>
+      </c>
+      <c r="AN13">
+        <v>6.8</v>
+      </c>
+      <c r="AO13">
+        <v>12.8</v>
+      </c>
+      <c r="AP13">
+        <v>15.5</v>
+      </c>
+      <c r="AQ13">
+        <v>6.3</v>
+      </c>
+      <c r="AR13">
+        <v>7.9</v>
+      </c>
+      <c r="AS13">
+        <v>16.5</v>
+      </c>
+      <c r="AT13">
+        <v>10</v>
+      </c>
+      <c r="AU13">
+        <v>10.3</v>
+      </c>
+      <c r="AV13">
+        <v>8.9</v>
+      </c>
+      <c r="AW13">
+        <v>7.2</v>
+      </c>
+      <c r="AX13">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AY13">
+        <v>9.1</v>
+      </c>
+      <c r="AZ13">
+        <v>2.1</v>
+      </c>
+      <c r="BA13">
+        <v>15.3</v>
+      </c>
+      <c r="BB13">
+        <v>10</v>
+      </c>
+      <c r="BC13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BD13">
+        <v>11.5</v>
+      </c>
+      <c r="BE13">
+        <v>10</v>
+      </c>
+      <c r="BF13">
+        <v>5.3</v>
+      </c>
+      <c r="BG13">
+        <v>7.3</v>
+      </c>
+      <c r="BH13">
+        <v>4.3</v>
+      </c>
+      <c r="BI13">
+        <v>9</v>
+      </c>
+      <c r="BJ13">
+        <v>7.9</v>
+      </c>
+      <c r="BK13">
+        <v>12.6</v>
+      </c>
+      <c r="BL13">
+        <v>13.9</v>
+      </c>
+      <c r="BM13">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="BN13">
+        <v>11.1</v>
+      </c>
+      <c r="BO13">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BP13">
+        <v>12.9</v>
+      </c>
+      <c r="BQ13">
+        <v>7.6</v>
+      </c>
+      <c r="BR13">
+        <v>8.6</v>
+      </c>
+      <c r="BS13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="BT13">
+        <v>9.1</v>
+      </c>
+      <c r="BU13">
+        <v>10.4</v>
+      </c>
+      <c r="BV13">
+        <v>8.9</v>
+      </c>
+      <c r="BW13">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="BX13">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BY13">
+        <v>12.1</v>
+      </c>
+      <c r="BZ13">
+        <v>7.4</v>
+      </c>
+      <c r="CA13">
+        <v>6.6</v>
+      </c>
+      <c r="CB13">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14">
+        <v>2020</v>
+      </c>
+      <c r="C14">
+        <v>57.1</v>
+      </c>
+      <c r="D14">
+        <v>58.5</v>
+      </c>
+      <c r="E14">
+        <v>50.4</v>
+      </c>
+      <c r="F14">
+        <v>49.8</v>
+      </c>
+      <c r="G14">
+        <v>51.8</v>
+      </c>
+      <c r="H14">
+        <v>48.9</v>
+      </c>
+      <c r="I14">
+        <v>51.2</v>
+      </c>
+      <c r="J14">
+        <v>47.7</v>
+      </c>
+      <c r="K14">
+        <v>62.6</v>
+      </c>
+      <c r="L14">
+        <v>53.3</v>
+      </c>
+      <c r="M14">
+        <v>52.8</v>
+      </c>
+      <c r="N14">
+        <v>59</v>
+      </c>
+      <c r="O14">
+        <v>51.6</v>
+      </c>
+      <c r="P14">
+        <v>51</v>
+      </c>
+      <c r="Q14">
+        <v>50.1</v>
+      </c>
+      <c r="R14">
+        <v>53.8</v>
+      </c>
+      <c r="S14">
+        <v>49.2</v>
+      </c>
+      <c r="T14">
+        <v>56.2</v>
+      </c>
+      <c r="U14">
+        <v>50.7</v>
+      </c>
+      <c r="V14">
+        <v>56</v>
+      </c>
+      <c r="W14">
+        <v>51.9</v>
+      </c>
+      <c r="X14">
+        <v>48.3</v>
+      </c>
+      <c r="Y14">
+        <v>62.7</v>
+      </c>
+      <c r="Z14">
+        <v>57.9</v>
+      </c>
+      <c r="AA14">
+        <v>48.3</v>
+      </c>
+      <c r="AB14">
+        <v>53.1</v>
+      </c>
+      <c r="AC14">
+        <v>40.5</v>
+      </c>
+      <c r="AD14">
+        <v>48.7</v>
+      </c>
+      <c r="AE14">
+        <v>55.2</v>
+      </c>
+      <c r="AF14">
+        <v>55.7</v>
+      </c>
+      <c r="AG14">
+        <v>51.8</v>
+      </c>
+      <c r="AH14">
+        <v>50.6</v>
+      </c>
+      <c r="AI14">
+        <v>54.3</v>
+      </c>
+      <c r="AJ14">
+        <v>53.6</v>
+      </c>
+      <c r="AK14">
+        <v>49.2</v>
+      </c>
+      <c r="AL14">
+        <v>61.5</v>
+      </c>
+      <c r="AM14">
+        <v>58</v>
+      </c>
+      <c r="AN14">
+        <v>55.5</v>
+      </c>
+      <c r="AO14">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="AP14">
+        <v>60.5</v>
+      </c>
+      <c r="AQ14">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="AR14">
+        <v>67.7</v>
+      </c>
+      <c r="AS14">
+        <v>67.5</v>
+      </c>
+      <c r="AT14">
+        <v>61.3</v>
+      </c>
+      <c r="AU14">
+        <v>58.3</v>
+      </c>
+      <c r="AV14">
+        <v>51.6</v>
+      </c>
+      <c r="AW14">
+        <v>52.4</v>
+      </c>
+      <c r="AX14">
+        <v>52.5</v>
+      </c>
+      <c r="AY14">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="AZ14">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="BA14">
+        <v>62.7</v>
+      </c>
+      <c r="BB14">
+        <v>49.9</v>
+      </c>
+      <c r="BC14">
+        <v>61.6</v>
+      </c>
+      <c r="BD14">
+        <v>51</v>
+      </c>
+      <c r="BE14">
+        <v>50.5</v>
+      </c>
+      <c r="BF14">
+        <v>53.8</v>
+      </c>
+      <c r="BG14">
+        <v>51</v>
+      </c>
+      <c r="BH14">
+        <v>62.7</v>
+      </c>
+      <c r="BI14">
+        <v>57.1</v>
+      </c>
+      <c r="BJ14">
+        <v>58.5</v>
+      </c>
+      <c r="BK14">
+        <v>46</v>
+      </c>
+      <c r="BL14">
+        <v>59.5</v>
+      </c>
+      <c r="BM14">
+        <v>51.4</v>
+      </c>
+      <c r="BN14">
+        <v>48.6</v>
+      </c>
+      <c r="BO14">
+        <v>47</v>
+      </c>
+      <c r="BP14">
+        <v>53</v>
+      </c>
+      <c r="BQ14">
+        <v>55.2</v>
+      </c>
+      <c r="BR14">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="BS14">
+        <v>50.6</v>
+      </c>
+      <c r="BT14">
+        <v>51.5</v>
+      </c>
+      <c r="BU14">
+        <v>49.6</v>
+      </c>
+      <c r="BV14">
+        <v>48.1</v>
+      </c>
+      <c r="BW14">
+        <v>51.4</v>
+      </c>
+      <c r="BX14">
+        <v>49.2</v>
+      </c>
+      <c r="BY14">
+        <v>48.7</v>
+      </c>
+      <c r="BZ14">
+        <v>53.2</v>
+      </c>
+      <c r="CA14">
+        <v>74.3</v>
+      </c>
+      <c r="CB14">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>12.7</v>
+      </c>
+      <c r="D15">
+        <v>9.5</v>
+      </c>
+      <c r="E15">
+        <v>13.3</v>
+      </c>
+      <c r="F15">
+        <v>24.8</v>
+      </c>
+      <c r="G15">
+        <v>12.2</v>
+      </c>
+      <c r="H15">
+        <v>17.8</v>
+      </c>
+      <c r="I15">
+        <v>15.2</v>
+      </c>
+      <c r="J15">
+        <v>24.6</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>10.8</v>
+      </c>
+      <c r="M15">
+        <v>17.7</v>
+      </c>
+      <c r="N15">
+        <v>15.1</v>
+      </c>
+      <c r="O15">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P15">
+        <v>28</v>
+      </c>
+      <c r="Q15">
+        <v>27.9</v>
+      </c>
+      <c r="R15">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>11.6</v>
+      </c>
+      <c r="U15">
+        <v>16.3</v>
+      </c>
+      <c r="V15">
+        <v>16.8</v>
+      </c>
+      <c r="W15">
+        <v>10.9</v>
+      </c>
+      <c r="X15">
+        <v>12.4</v>
+      </c>
+      <c r="Y15">
+        <v>14.9</v>
+      </c>
+      <c r="Z15">
+        <v>15.4</v>
+      </c>
+      <c r="AA15">
+        <v>15.4</v>
+      </c>
+      <c r="AB15">
+        <v>17.7</v>
+      </c>
+      <c r="AC15">
+        <v>28.5</v>
+      </c>
+      <c r="AD15">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AE15">
+        <v>14.9</v>
+      </c>
+      <c r="AF15">
+        <v>14.4</v>
+      </c>
+      <c r="AG15">
+        <v>15.6</v>
+      </c>
+      <c r="AH15">
+        <v>17</v>
+      </c>
+      <c r="AI15">
+        <v>11.9</v>
+      </c>
+      <c r="AJ15">
+        <v>9.4</v>
+      </c>
+      <c r="AK15">
+        <v>15.5</v>
+      </c>
+      <c r="AL15">
+        <v>10.4</v>
+      </c>
+      <c r="AM15">
+        <v>14.8</v>
+      </c>
+      <c r="AN15">
+        <v>18.7</v>
+      </c>
+      <c r="AO15">
+        <v>8.4</v>
+      </c>
+      <c r="AP15">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AQ15">
+        <v>8.9</v>
+      </c>
+      <c r="AR15">
+        <v>7.3</v>
+      </c>
+      <c r="AS15">
+        <v>10.6</v>
+      </c>
+      <c r="AT15">
+        <v>10.3</v>
+      </c>
+      <c r="AU15">
+        <v>11.5</v>
+      </c>
+      <c r="AV15">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AW15">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AX15">
+        <v>13.6</v>
+      </c>
+      <c r="AY15">
+        <v>15.4</v>
+      </c>
+      <c r="AZ15">
+        <v>11.2</v>
+      </c>
+      <c r="BA15">
+        <v>7.6</v>
+      </c>
+      <c r="BB15">
+        <v>12.3</v>
+      </c>
+      <c r="BC15">
+        <v>7.5</v>
+      </c>
+      <c r="BD15">
+        <v>12.2</v>
+      </c>
+      <c r="BE15">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="BF15">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="BG15">
+        <v>10.6</v>
+      </c>
+      <c r="BH15">
+        <v>15.7</v>
+      </c>
+      <c r="BI15">
+        <v>13.2</v>
+      </c>
+      <c r="BJ15">
+        <v>16.2</v>
+      </c>
+      <c r="BK15">
+        <v>5.9</v>
+      </c>
+      <c r="BL15">
+        <v>9.4</v>
+      </c>
+      <c r="BM15">
+        <v>17.3</v>
+      </c>
+      <c r="BN15">
+        <v>13.1</v>
+      </c>
+      <c r="BO15">
+        <v>17.8</v>
+      </c>
+      <c r="BP15">
+        <v>10.6</v>
+      </c>
+      <c r="BQ15">
+        <v>14.7</v>
+      </c>
+      <c r="BR15">
+        <v>11.6</v>
+      </c>
+      <c r="BS15">
+        <v>19.2</v>
+      </c>
+      <c r="BT15">
+        <v>9.6</v>
+      </c>
+      <c r="BU15">
+        <v>12.5</v>
+      </c>
+      <c r="BV15">
+        <v>19.7</v>
+      </c>
+      <c r="BW15">
+        <v>12.3</v>
+      </c>
+      <c r="BX15">
+        <v>10.5</v>
+      </c>
+      <c r="BY15">
+        <v>15.6</v>
+      </c>
+      <c r="BZ15">
+        <v>12.8</v>
+      </c>
+      <c r="CA15">
+        <v>6.3</v>
+      </c>
+      <c r="CB15">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16">
+        <v>2020</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2699347</v>
+      </c>
+      <c r="D16" s="1">
+        <v>49454.5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13650.2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>13352.6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>43074.3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>46747.8</v>
+      </c>
+      <c r="I16" s="1">
+        <v>95243.4</v>
+      </c>
+      <c r="J16" s="1">
+        <v>9523.7999999999993</v>
+      </c>
+      <c r="K16" s="1">
+        <v>37360</v>
+      </c>
+      <c r="L16" s="1">
+        <v>78851.399999999994</v>
+      </c>
+      <c r="M16" s="1">
+        <v>19830.3</v>
+      </c>
+      <c r="N16" s="1">
+        <v>32830.199999999997</v>
+      </c>
+      <c r="O16" s="1">
+        <v>42849.4</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2158.1999999999998</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>12343</v>
+      </c>
+      <c r="R16" s="1">
+        <v>31457.9</v>
+      </c>
+      <c r="S16" s="1">
+        <v>51204.6</v>
+      </c>
+      <c r="T16" s="1">
+        <v>24454.9</v>
+      </c>
+      <c r="U16" s="1">
+        <v>21450</v>
+      </c>
+      <c r="V16" s="1">
+        <v>43587</v>
+      </c>
+      <c r="W16" s="1">
+        <v>18035.2</v>
+      </c>
+      <c r="X16" s="1">
+        <v>23015.4</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>58658.8</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>11002</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>21970.6</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>19892</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>2211.5</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>35199.9</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>35965.800000000003</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>23669</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>29489.9</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>9069.5</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>23168.9</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>54017.3</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>27722</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>53604</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>27137.1</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>17972</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>101392</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>69457.100000000006</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>41272.1</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>71531.600000000006</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>40355.599999999999</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>32589.1</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>15253.5</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>14382</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>21131.7</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>18840</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>94416</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>26243</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>62716.2</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>38870.5</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>36142.6</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>31304.1</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>18727</v>
+      </c>
+      <c r="BF16" s="1">
+        <v>38876.300000000003</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>6973</v>
+      </c>
+      <c r="BH16" s="1">
+        <v>14445.6</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>63919</v>
+      </c>
+      <c r="BJ16" s="1">
+        <v>7179.1</v>
+      </c>
+      <c r="BK16" s="1">
+        <v>7421.4</v>
+      </c>
+      <c r="BL16" s="1">
+        <v>55491.5</v>
+      </c>
+      <c r="BM16" s="1">
+        <v>39752.699999999997</v>
+      </c>
+      <c r="BN16" s="1">
+        <v>29922.799999999999</v>
+      </c>
+      <c r="BO16" s="1">
+        <v>15120.2</v>
+      </c>
+      <c r="BP16" s="1">
+        <v>70184.7</v>
+      </c>
+      <c r="BQ16" s="1">
+        <v>50468.1</v>
+      </c>
+      <c r="BR16" s="1">
+        <v>59453</v>
+      </c>
+      <c r="BS16" s="1">
+        <v>26855.3</v>
+      </c>
+      <c r="BT16" s="1">
+        <v>10427</v>
+      </c>
+      <c r="BU16" s="1">
+        <v>18337.8</v>
+      </c>
+      <c r="BV16" s="1">
+        <v>26334.7</v>
+      </c>
+      <c r="BW16" s="1">
+        <v>16490.3</v>
+      </c>
+      <c r="BX16" s="1">
+        <v>31974.9</v>
+      </c>
+      <c r="BY16" s="1">
+        <v>26143.7</v>
+      </c>
+      <c r="BZ16" s="1">
+        <v>78794.3</v>
+      </c>
+      <c r="CA16" s="1">
+        <v>84541.5</v>
+      </c>
+      <c r="CB16" s="1">
+        <v>24692.400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17">
+        <v>2020</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>-0.1</v>
+      </c>
+      <c r="AD17">
+        <v>-0.1</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0.1</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0.1</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BY17">
+        <v>0</v>
+      </c>
+      <c r="BZ17">
+        <v>0</v>
+      </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
+      <c r="CB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18">
+        <v>2020</v>
+      </c>
+      <c r="C18">
+        <v>8.1</v>
+      </c>
+      <c r="D18">
+        <v>6.6</v>
+      </c>
+      <c r="E18">
+        <v>8.5</v>
+      </c>
+      <c r="F18">
+        <v>6.9</v>
+      </c>
+      <c r="G18">
+        <v>10.5</v>
+      </c>
+      <c r="H18">
+        <v>16.5</v>
+      </c>
+      <c r="I18">
+        <v>13.4</v>
+      </c>
+      <c r="J18">
+        <v>15.7</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>6.9</v>
+      </c>
+      <c r="O18">
+        <v>10.7</v>
+      </c>
+      <c r="P18">
+        <v>15.9</v>
+      </c>
+      <c r="Q18">
+        <v>7.1</v>
+      </c>
+      <c r="R18">
+        <v>16.7</v>
+      </c>
+      <c r="S18">
+        <v>17</v>
+      </c>
+      <c r="T18">
+        <v>10.6</v>
+      </c>
+      <c r="U18">
+        <v>13.8</v>
+      </c>
+      <c r="V18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W18">
+        <v>19</v>
+      </c>
+      <c r="X18">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y18">
+        <v>5.5</v>
+      </c>
+      <c r="Z18">
+        <v>1.8</v>
+      </c>
+      <c r="AA18">
+        <v>25</v>
+      </c>
+      <c r="AB18">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AC18">
+        <v>24.6</v>
+      </c>
+      <c r="AD18">
+        <v>16.2</v>
+      </c>
+      <c r="AE18">
+        <v>7.7</v>
+      </c>
+      <c r="AF18">
+        <v>13.7</v>
+      </c>
+      <c r="AG18">
+        <v>19.7</v>
+      </c>
+      <c r="AH18">
+        <v>9.9</v>
+      </c>
+      <c r="AI18">
+        <v>5.9</v>
+      </c>
+      <c r="AJ18">
+        <v>10.9</v>
+      </c>
+      <c r="AK18">
+        <v>6.4</v>
+      </c>
+      <c r="AL18">
+        <v>5.9</v>
+      </c>
+      <c r="AM18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AN18">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AO18">
+        <v>3.5</v>
+      </c>
+      <c r="AP18">
+        <v>3.1</v>
+      </c>
+      <c r="AQ18">
+        <v>5.4</v>
+      </c>
+      <c r="AR18">
+        <v>3.4</v>
+      </c>
+      <c r="AS18">
+        <v>5.7</v>
+      </c>
+      <c r="AT18">
+        <v>6.5</v>
+      </c>
+      <c r="AU18">
+        <v>6.1</v>
+      </c>
+      <c r="AV18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AW18">
+        <v>10.7</v>
+      </c>
+      <c r="AX18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AY18">
+        <v>2.5</v>
+      </c>
+      <c r="AZ18">
+        <v>0.7</v>
+      </c>
+      <c r="BA18">
+        <v>6.2</v>
+      </c>
+      <c r="BB18">
+        <v>16.8</v>
+      </c>
+      <c r="BC18">
+        <v>3.2</v>
+      </c>
+      <c r="BD18">
+        <v>17.2</v>
+      </c>
+      <c r="BE18">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="BF18">
+        <v>4.2</v>
+      </c>
+      <c r="BG18">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="BH18">
+        <v>3.9</v>
+      </c>
+      <c r="BI18">
+        <v>5.5</v>
+      </c>
+      <c r="BJ18">
+        <v>15.8</v>
+      </c>
+      <c r="BK18">
+        <v>29.7</v>
+      </c>
+      <c r="BL18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="BM18">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="BN18">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="BO18">
+        <v>17</v>
+      </c>
+      <c r="BP18">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="BQ18">
+        <v>15.7</v>
+      </c>
+      <c r="BR18">
+        <v>3.3</v>
+      </c>
+      <c r="BS18">
+        <v>14.2</v>
+      </c>
+      <c r="BT18">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="BU18">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="BV18">
+        <v>24.4</v>
+      </c>
+      <c r="BW18">
+        <v>24.1</v>
+      </c>
+      <c r="BX18">
+        <v>10.3</v>
+      </c>
+      <c r="BY18">
+        <v>20.7</v>
+      </c>
+      <c r="BZ18">
+        <v>6.3</v>
+      </c>
+      <c r="CA18">
+        <v>3.4</v>
+      </c>
+      <c r="CB18">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19">
+        <v>2020</v>
+      </c>
+      <c r="C19">
+        <v>33.4</v>
+      </c>
+      <c r="D19">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>32.4</v>
+      </c>
+      <c r="F19">
+        <v>40.1</v>
+      </c>
+      <c r="G19">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="H19">
+        <v>48.5</v>
+      </c>
+      <c r="I19">
+        <v>27.9</v>
+      </c>
+      <c r="J19">
+        <v>89.4</v>
+      </c>
+      <c r="K19">
+        <v>18.5</v>
+      </c>
+      <c r="L19">
+        <v>21.4</v>
+      </c>
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19">
+        <v>26.2</v>
+      </c>
+      <c r="O19">
+        <v>25</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>57.1</v>
+      </c>
+      <c r="R19">
+        <v>56.9</v>
+      </c>
+      <c r="S19">
+        <v>46.2</v>
+      </c>
+      <c r="T19">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="U19">
+        <v>25.3</v>
+      </c>
+      <c r="V19">
+        <v>6</v>
+      </c>
+      <c r="W19">
+        <v>48.5</v>
+      </c>
+      <c r="X19">
+        <v>36.9</v>
+      </c>
+      <c r="Y19">
+        <v>31</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>72</v>
+      </c>
+      <c r="AB19">
+        <v>0.3</v>
+      </c>
+      <c r="AC19">
+        <v>20</v>
+      </c>
+      <c r="AD19">
+        <v>25.6</v>
+      </c>
+      <c r="AE19">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF19">
+        <v>61.1</v>
+      </c>
+      <c r="AG19">
+        <v>60.3</v>
+      </c>
+      <c r="AH19">
+        <v>32.1</v>
+      </c>
+      <c r="AI19">
+        <v>21.6</v>
+      </c>
+      <c r="AJ19">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AK19">
+        <v>29.4</v>
+      </c>
+      <c r="AL19">
+        <v>38.1</v>
+      </c>
+      <c r="AM19">
+        <v>35</v>
+      </c>
+      <c r="AN19">
+        <v>26.5</v>
+      </c>
+      <c r="AO19">
+        <v>7.6</v>
+      </c>
+      <c r="AP19">
+        <v>18.5</v>
+      </c>
+      <c r="AQ19">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AR19">
+        <v>10.7</v>
+      </c>
+      <c r="AS19">
+        <v>36.5</v>
+      </c>
+      <c r="AT19">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AU19">
+        <v>3.1</v>
+      </c>
+      <c r="AV19">
+        <v>33.4</v>
+      </c>
+      <c r="AW19">
+        <v>51.5</v>
+      </c>
+      <c r="AX19">
+        <v>26.5</v>
+      </c>
+      <c r="AY19">
+        <v>12</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>23.6</v>
+      </c>
+      <c r="BB19">
+        <v>40.9</v>
+      </c>
+      <c r="BC19">
+        <v>46.3</v>
+      </c>
+      <c r="BD19">
+        <v>48.6</v>
+      </c>
+      <c r="BE19">
+        <v>2</v>
+      </c>
+      <c r="BF19">
+        <v>11</v>
+      </c>
+      <c r="BG19">
+        <v>43.1</v>
+      </c>
+      <c r="BH19">
+        <v>1</v>
+      </c>
+      <c r="BI19">
+        <v>30.8</v>
+      </c>
+      <c r="BJ19">
+        <v>63.9</v>
+      </c>
+      <c r="BK19">
+        <v>52.4</v>
+      </c>
+      <c r="BL19">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="BM19">
+        <v>52.5</v>
+      </c>
+      <c r="BN19">
+        <v>59.2</v>
+      </c>
+      <c r="BO19">
+        <v>24.1</v>
+      </c>
+      <c r="BP19">
+        <v>22.9</v>
+      </c>
+      <c r="BQ19">
+        <v>40.9</v>
+      </c>
+      <c r="BR19">
+        <v>10.8</v>
+      </c>
+      <c r="BS19">
+        <v>61.7</v>
+      </c>
+      <c r="BT19">
+        <v>12.1</v>
+      </c>
+      <c r="BU19">
+        <v>43.6</v>
+      </c>
+      <c r="BV19">
+        <v>49.8</v>
+      </c>
+      <c r="BW19">
+        <v>75</v>
+      </c>
+      <c r="BX19">
+        <v>33.6</v>
+      </c>
+      <c r="BY19">
+        <v>48.9</v>
+      </c>
+      <c r="BZ19">
+        <v>14.6</v>
+      </c>
+      <c r="CA19">
+        <v>18.5</v>
+      </c>
+      <c r="CB19">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20">
+        <v>2020</v>
+      </c>
+      <c r="C20">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D20">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E20">
+        <v>22.7</v>
+      </c>
+      <c r="F20">
+        <v>48</v>
+      </c>
+      <c r="G20">
+        <v>24.4</v>
+      </c>
+      <c r="H20">
+        <v>27.8</v>
+      </c>
+      <c r="I20">
+        <v>23.1</v>
+      </c>
+      <c r="J20">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="K20">
+        <v>5.6</v>
+      </c>
+      <c r="L20">
+        <v>10.3</v>
+      </c>
+      <c r="M20">
+        <v>7.7</v>
+      </c>
+      <c r="N20">
+        <v>14.2</v>
+      </c>
+      <c r="O20">
+        <v>13.2</v>
+      </c>
+      <c r="P20">
+        <v>11.8</v>
+      </c>
+      <c r="Q20">
+        <v>10.7</v>
+      </c>
+      <c r="R20">
+        <v>38.9</v>
+      </c>
+      <c r="S20">
+        <v>24.8</v>
+      </c>
+      <c r="T20">
+        <v>35.6</v>
+      </c>
+      <c r="U20">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="V20">
+        <v>13.6</v>
+      </c>
+      <c r="W20">
+        <v>38.4</v>
+      </c>
+      <c r="X20">
+        <v>15.8</v>
+      </c>
+      <c r="Y20">
+        <v>6.7</v>
+      </c>
+      <c r="Z20">
+        <v>9.9</v>
+      </c>
+      <c r="AA20">
+        <v>34</v>
+      </c>
+      <c r="AB20">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AC20">
+        <v>27.2</v>
+      </c>
+      <c r="AD20">
+        <v>22.6</v>
+      </c>
+      <c r="AE20">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AF20">
+        <v>24.8</v>
+      </c>
+      <c r="AG20">
+        <v>35.9</v>
+      </c>
+      <c r="AH20">
+        <v>14.7</v>
+      </c>
+      <c r="AI20">
+        <v>11</v>
+      </c>
+      <c r="AJ20">
+        <v>19.7</v>
+      </c>
+      <c r="AK20">
+        <v>6.2</v>
+      </c>
+      <c r="AL20">
+        <v>14.9</v>
+      </c>
+      <c r="AM20">
+        <v>6.8</v>
+      </c>
+      <c r="AN20">
+        <v>4.3</v>
+      </c>
+      <c r="AO20">
+        <v>3.7</v>
+      </c>
+      <c r="AP20">
+        <v>3.8</v>
+      </c>
+      <c r="AQ20">
+        <v>11.7</v>
+      </c>
+      <c r="AR20">
+        <v>7.7</v>
+      </c>
+      <c r="AS20">
+        <v>6.7</v>
+      </c>
+      <c r="AT20">
+        <v>15.9</v>
+      </c>
+      <c r="AU20">
+        <v>9</v>
+      </c>
+      <c r="AV20">
+        <v>8</v>
+      </c>
+      <c r="AW20">
+        <v>30</v>
+      </c>
+      <c r="AX20">
+        <v>7.9</v>
+      </c>
+      <c r="AY20">
+        <v>3.9</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>11.9</v>
+      </c>
+      <c r="BB20">
+        <v>23.5</v>
+      </c>
+      <c r="BC20">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="BD20">
+        <v>27.8</v>
+      </c>
+      <c r="BE20">
+        <v>18.2</v>
+      </c>
+      <c r="BF20">
+        <v>12.2</v>
+      </c>
+      <c r="BG20">
+        <v>37.6</v>
+      </c>
+      <c r="BH20">
+        <v>15.3</v>
+      </c>
+      <c r="BI20">
+        <v>9.6</v>
+      </c>
+      <c r="BJ20">
+        <v>24</v>
+      </c>
+      <c r="BK20">
+        <v>38.1</v>
+      </c>
+      <c r="BL20">
+        <v>5.9</v>
+      </c>
+      <c r="BM20">
+        <v>37</v>
+      </c>
+      <c r="BN20">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="BO20">
+        <v>51.6</v>
+      </c>
+      <c r="BP20">
+        <v>13.7</v>
+      </c>
+      <c r="BQ20">
+        <v>26.1</v>
+      </c>
+      <c r="BR20">
+        <v>3</v>
+      </c>
+      <c r="BS20">
+        <v>38.9</v>
+      </c>
+      <c r="BT20">
+        <v>31.3</v>
+      </c>
+      <c r="BU20">
+        <v>14.3</v>
+      </c>
+      <c r="BV20">
+        <v>39</v>
+      </c>
+      <c r="BW20">
+        <v>48.6</v>
+      </c>
+      <c r="BX20">
+        <v>19</v>
+      </c>
+      <c r="BY20">
+        <v>37</v>
+      </c>
+      <c r="BZ20">
+        <v>12</v>
+      </c>
+      <c r="CA20">
+        <v>5.4</v>
+      </c>
+      <c r="CB20">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21">
+        <v>2020</v>
+      </c>
+      <c r="C21">
+        <v>14.1</v>
+      </c>
+      <c r="D21">
+        <v>19.2</v>
+      </c>
+      <c r="E21">
+        <v>29.4</v>
+      </c>
+      <c r="F21">
+        <v>33.4</v>
+      </c>
+      <c r="G21">
+        <v>17.8</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J21">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K21">
+        <v>15.7</v>
+      </c>
+      <c r="L21">
+        <v>31.6</v>
+      </c>
+      <c r="M21">
+        <v>2.5</v>
+      </c>
+      <c r="N21">
+        <v>19.2</v>
+      </c>
+      <c r="O21">
+        <v>34</v>
+      </c>
+      <c r="P21">
+        <v>14.2</v>
+      </c>
+      <c r="Q21">
+        <v>5.7</v>
+      </c>
+      <c r="R21">
+        <v>11.8</v>
+      </c>
+      <c r="S21">
+        <v>25.4</v>
+      </c>
+      <c r="T21">
+        <v>12.2</v>
+      </c>
+      <c r="U21">
+        <v>11.1</v>
+      </c>
+      <c r="V21">
+        <v>10.8</v>
+      </c>
+      <c r="W21">
+        <v>20.8</v>
+      </c>
+      <c r="X21">
+        <v>27.6</v>
+      </c>
+      <c r="Y21">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Z21">
+        <v>4.3</v>
+      </c>
+      <c r="AA21">
+        <v>23.7</v>
+      </c>
+      <c r="AB21">
+        <v>5.4</v>
+      </c>
+      <c r="AC21">
+        <v>23.4</v>
+      </c>
+      <c r="AD21">
+        <v>32.6</v>
+      </c>
+      <c r="AE21">
+        <v>17.3</v>
+      </c>
+      <c r="AF21">
+        <v>12.1</v>
+      </c>
+      <c r="AG21">
+        <v>13.5</v>
+      </c>
+      <c r="AH21">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AI21">
+        <v>30.2</v>
+      </c>
+      <c r="AJ21">
+        <v>24.9</v>
+      </c>
+      <c r="AK21">
+        <v>3.9</v>
+      </c>
+      <c r="AL21">
+        <v>13.6</v>
+      </c>
+      <c r="AM21">
+        <v>7.4</v>
+      </c>
+      <c r="AN21">
+        <v>5.2</v>
+      </c>
+      <c r="AO21">
+        <v>1.8</v>
+      </c>
+      <c r="AP21">
+        <v>2</v>
+      </c>
+      <c r="AQ21">
+        <v>6.4</v>
+      </c>
+      <c r="AR21">
+        <v>8.5</v>
+      </c>
+      <c r="AS21">
+        <v>3.9</v>
+      </c>
+      <c r="AT21">
+        <v>23.3</v>
+      </c>
+      <c r="AU21">
+        <v>23.2</v>
+      </c>
+      <c r="AV21">
+        <v>21</v>
+      </c>
+      <c r="AW21">
+        <v>6.4</v>
+      </c>
+      <c r="AX21">
+        <v>4.7</v>
+      </c>
+      <c r="AY21">
+        <v>1.9</v>
+      </c>
+      <c r="AZ21">
+        <v>4.8</v>
+      </c>
+      <c r="BA21">
+        <v>6.2</v>
+      </c>
+      <c r="BB21">
+        <v>30.6</v>
+      </c>
+      <c r="BC21">
+        <v>3.4</v>
+      </c>
+      <c r="BD21">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="BE21">
+        <v>13</v>
+      </c>
+      <c r="BF21">
+        <v>7.2</v>
+      </c>
+      <c r="BG21">
+        <v>8.1</v>
+      </c>
+      <c r="BH21">
+        <v>9.1</v>
+      </c>
+      <c r="BI21">
+        <v>12.9</v>
+      </c>
+      <c r="BJ21">
+        <v>10.8</v>
+      </c>
+      <c r="BK21">
+        <v>13.9</v>
+      </c>
+      <c r="BL21">
+        <v>11.7</v>
+      </c>
+      <c r="BM21">
+        <v>13.8</v>
+      </c>
+      <c r="BN21">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="BO21">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="BP21">
+        <v>41</v>
+      </c>
+      <c r="BQ21">
+        <v>9.9</v>
+      </c>
+      <c r="BR21">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BS21">
+        <v>11.4</v>
+      </c>
+      <c r="BT21">
+        <v>16.5</v>
+      </c>
+      <c r="BU21">
+        <v>26</v>
+      </c>
+      <c r="BV21">
+        <v>19.7</v>
+      </c>
+      <c r="BW21">
+        <v>25.3</v>
+      </c>
+      <c r="BX21">
+        <v>28.2</v>
+      </c>
+      <c r="BY21">
+        <v>14.1</v>
+      </c>
+      <c r="BZ21">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="CA21">
+        <v>5.6</v>
+      </c>
+      <c r="CB21">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22">
+        <v>2020</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>23.5</v>
+      </c>
+      <c r="E22">
+        <v>41.7</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>30.7</v>
+      </c>
+      <c r="H22">
+        <v>31.3</v>
+      </c>
+      <c r="I22">
+        <v>35.6</v>
+      </c>
+      <c r="J22">
+        <v>27.8</v>
+      </c>
+      <c r="K22">
+        <v>23.1</v>
+      </c>
+      <c r="L22">
+        <v>30.6</v>
+      </c>
+      <c r="M22">
+        <v>13.7</v>
+      </c>
+      <c r="N22">
+        <v>26</v>
+      </c>
+      <c r="O22">
+        <v>37.5</v>
+      </c>
+      <c r="P22">
+        <v>36</v>
+      </c>
+      <c r="Q22">
+        <v>23.4</v>
+      </c>
+      <c r="R22">
+        <v>25</v>
+      </c>
+      <c r="S22">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="T22">
+        <v>35.1</v>
+      </c>
+      <c r="U22">
+        <v>16.3</v>
+      </c>
+      <c r="V22">
+        <v>31.8</v>
+      </c>
+      <c r="W22">
+        <v>29.5</v>
+      </c>
+      <c r="X22">
+        <v>36</v>
+      </c>
+      <c r="Y22">
+        <v>13.7</v>
+      </c>
+      <c r="Z22">
+        <v>21.3</v>
+      </c>
+      <c r="AA22">
+        <v>35.4</v>
+      </c>
+      <c r="AB22">
+        <v>15.1</v>
+      </c>
+      <c r="AC22">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AD22">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="AE22">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AF22">
+        <v>20.7</v>
+      </c>
+      <c r="AG22">
+        <v>29.1</v>
+      </c>
+      <c r="AH22">
+        <v>34.4</v>
+      </c>
+      <c r="AI22">
+        <v>28.4</v>
+      </c>
+      <c r="AJ22">
+        <v>29.2</v>
+      </c>
+      <c r="AK22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AL22">
+        <v>20.3</v>
+      </c>
+      <c r="AM22">
+        <v>24.6</v>
+      </c>
+      <c r="AN22">
+        <v>15.2</v>
+      </c>
+      <c r="AO22">
+        <v>4.2</v>
+      </c>
+      <c r="AP22">
+        <v>4.2</v>
+      </c>
+      <c r="AQ22">
+        <v>11.4</v>
+      </c>
+      <c r="AR22">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AS22">
+        <v>3.3</v>
+      </c>
+      <c r="AT22">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AU22">
+        <v>29.8</v>
+      </c>
+      <c r="AV22">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AW22">
+        <v>22.6</v>
+      </c>
+      <c r="AX22">
+        <v>22</v>
+      </c>
+      <c r="AY22">
+        <v>5</v>
+      </c>
+      <c r="AZ22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="BA22">
+        <v>9.9</v>
+      </c>
+      <c r="BB22">
+        <v>39.1</v>
+      </c>
+      <c r="BC22">
+        <v>5.6</v>
+      </c>
+      <c r="BD22">
+        <v>32.1</v>
+      </c>
+      <c r="BE22">
+        <v>18.8</v>
+      </c>
+      <c r="BF22">
+        <v>26.4</v>
+      </c>
+      <c r="BG22">
+        <v>21.8</v>
+      </c>
+      <c r="BH22">
+        <v>20.7</v>
+      </c>
+      <c r="BI22">
+        <v>26.6</v>
+      </c>
+      <c r="BJ22">
+        <v>22.8</v>
+      </c>
+      <c r="BK22">
+        <v>30.5</v>
+      </c>
+      <c r="BL22">
+        <v>18</v>
+      </c>
+      <c r="BM22">
+        <v>25.6</v>
+      </c>
+      <c r="BN22">
+        <v>31.1</v>
+      </c>
+      <c r="BO22">
+        <v>30</v>
+      </c>
+      <c r="BP22">
+        <v>32.5</v>
+      </c>
+      <c r="BQ22">
+        <v>25.1</v>
+      </c>
+      <c r="BR22">
+        <v>12.5</v>
+      </c>
+      <c r="BS22">
+        <v>25.3</v>
+      </c>
+      <c r="BT22">
+        <v>32.1</v>
+      </c>
+      <c r="BU22">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="BV22">
+        <v>42.2</v>
+      </c>
+      <c r="BW22">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="BX22">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="BY22">
+        <v>30</v>
+      </c>
+      <c r="BZ22">
+        <v>19.5</v>
+      </c>
+      <c r="CA22">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="CB22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23">
+        <v>2020</v>
+      </c>
+      <c r="C23">
+        <v>17.2</v>
+      </c>
+      <c r="D23">
+        <v>11.5</v>
+      </c>
+      <c r="E23">
+        <v>14.2</v>
+      </c>
+      <c r="F23">
+        <v>9.1</v>
+      </c>
+      <c r="G23">
+        <v>21.8</v>
+      </c>
+      <c r="H23">
+        <v>29.1</v>
+      </c>
+      <c r="I23">
+        <v>23.6</v>
+      </c>
+      <c r="J23">
+        <v>25.3</v>
+      </c>
+      <c r="K23">
+        <v>14.2</v>
+      </c>
+      <c r="L23">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M23">
+        <v>17.7</v>
+      </c>
+      <c r="N23">
+        <v>14.3</v>
+      </c>
+      <c r="O23">
+        <v>12.7</v>
+      </c>
+      <c r="P23">
+        <v>22.5</v>
+      </c>
+      <c r="Q23">
+        <v>27.7</v>
+      </c>
+      <c r="R23">
+        <v>28.3</v>
+      </c>
+      <c r="S23">
+        <v>19.8</v>
+      </c>
+      <c r="T23">
+        <v>21.8</v>
+      </c>
+      <c r="U23">
+        <v>23.3</v>
+      </c>
+      <c r="V23">
+        <v>23.5</v>
+      </c>
+      <c r="W23">
+        <v>24.4</v>
+      </c>
+      <c r="X23">
+        <v>16</v>
+      </c>
+      <c r="Y23">
+        <v>14.4</v>
+      </c>
+      <c r="Z23">
+        <v>20</v>
+      </c>
+      <c r="AA23">
+        <v>25.5</v>
+      </c>
+      <c r="AB23">
+        <v>14.7</v>
+      </c>
+      <c r="AC23">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AD23">
+        <v>13.8</v>
+      </c>
+      <c r="AE23">
+        <v>19.3</v>
+      </c>
+      <c r="AF23">
+        <v>21.4</v>
+      </c>
+      <c r="AG23">
+        <v>30.6</v>
+      </c>
+      <c r="AH23">
+        <v>25.1</v>
+      </c>
+      <c r="AI23">
+        <v>16.5</v>
+      </c>
+      <c r="AJ23">
+        <v>20.7</v>
+      </c>
+      <c r="AK23">
+        <v>11.3</v>
+      </c>
+      <c r="AL23">
+        <v>16.7</v>
+      </c>
+      <c r="AM23">
+        <v>20.2</v>
+      </c>
+      <c r="AN23">
+        <v>15.6</v>
+      </c>
+      <c r="AO23">
+        <v>8.5</v>
+      </c>
+      <c r="AP23">
+        <v>6.8</v>
+      </c>
+      <c r="AQ23">
+        <v>12.5</v>
+      </c>
+      <c r="AR23">
+        <v>10.9</v>
+      </c>
+      <c r="AS23">
+        <v>7.1</v>
+      </c>
+      <c r="AT23">
+        <v>14.7</v>
+      </c>
+      <c r="AU23">
+        <v>15.7</v>
+      </c>
+      <c r="AV23">
+        <v>23.2</v>
+      </c>
+      <c r="AW23">
+        <v>25.2</v>
+      </c>
+      <c r="AX23">
+        <v>25.6</v>
+      </c>
+      <c r="AY23">
+        <v>7.5</v>
+      </c>
+      <c r="AZ23">
+        <v>9.6</v>
+      </c>
+      <c r="BA23">
+        <v>10.8</v>
+      </c>
+      <c r="BB23">
+        <v>15.6</v>
+      </c>
+      <c r="BC23">
+        <v>10.5</v>
+      </c>
+      <c r="BD23">
+        <v>25.6</v>
+      </c>
+      <c r="BE23">
+        <v>15.1</v>
+      </c>
+      <c r="BF23">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="BG23">
+        <v>24.6</v>
+      </c>
+      <c r="BH23">
+        <v>23.6</v>
+      </c>
+      <c r="BI23">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="BJ23">
+        <v>27.8</v>
+      </c>
+      <c r="BK23">
+        <v>42.7</v>
+      </c>
+      <c r="BL23">
+        <v>17.3</v>
+      </c>
+      <c r="BM23">
+        <v>30.7</v>
+      </c>
+      <c r="BN23">
+        <v>23.2</v>
+      </c>
+      <c r="BO23">
+        <v>25.5</v>
+      </c>
+      <c r="BP23">
+        <v>12.2</v>
+      </c>
+      <c r="BQ23">
+        <v>31.7</v>
+      </c>
+      <c r="BR23">
+        <v>15.4</v>
+      </c>
+      <c r="BS23">
+        <v>28.6</v>
+      </c>
+      <c r="BT23">
+        <v>26.6</v>
+      </c>
+      <c r="BU23">
+        <v>16.5</v>
+      </c>
+      <c r="BV23">
+        <v>19.8</v>
+      </c>
+      <c r="BW23">
+        <v>26.8</v>
+      </c>
+      <c r="BX23">
+        <v>16.8</v>
+      </c>
+      <c r="BY23">
+        <v>31</v>
+      </c>
+      <c r="BZ23">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="CA23">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="CB23">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24">
+        <v>2020</v>
+      </c>
+      <c r="C24">
+        <v>5.7</v>
+      </c>
+      <c r="D24">
+        <v>5.6</v>
+      </c>
+      <c r="E24">
+        <v>4.2</v>
+      </c>
+      <c r="F24">
+        <v>3.8</v>
+      </c>
+      <c r="G24">
+        <v>9.5</v>
+      </c>
+      <c r="H24">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I24">
+        <v>7.6</v>
+      </c>
+      <c r="J24">
+        <v>5.3</v>
+      </c>
+      <c r="K24">
+        <v>6.2</v>
+      </c>
+      <c r="L24">
+        <v>6.1</v>
+      </c>
+      <c r="M24">
+        <v>9</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>4.5</v>
+      </c>
+      <c r="P24">
+        <v>5.6</v>
+      </c>
+      <c r="Q24">
+        <v>7.7</v>
+      </c>
+      <c r="R24">
+        <v>7.1</v>
+      </c>
+      <c r="S24">
+        <v>6.1</v>
+      </c>
+      <c r="T24">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U24">
+        <v>6.2</v>
+      </c>
+      <c r="V24">
+        <v>7.6</v>
+      </c>
+      <c r="W24">
+        <v>6.5</v>
+      </c>
+      <c r="X24">
+        <v>8</v>
+      </c>
+      <c r="Y24">
+        <v>5.2</v>
+      </c>
+      <c r="Z24">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA24">
+        <v>6.5</v>
+      </c>
+      <c r="AB24">
+        <v>5.9</v>
+      </c>
+      <c r="AC24">
+        <v>8.4</v>
+      </c>
+      <c r="AD24">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AE24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AF24">
+        <v>10</v>
+      </c>
+      <c r="AG24">
+        <v>7.6</v>
+      </c>
+      <c r="AH24">
+        <v>6.1</v>
+      </c>
+      <c r="AI24">
+        <v>5.3</v>
+      </c>
+      <c r="AJ24">
+        <v>6.8</v>
+      </c>
+      <c r="AK24">
+        <v>2.8</v>
+      </c>
+      <c r="AL24">
+        <v>5.9</v>
+      </c>
+      <c r="AM24">
+        <v>7.4</v>
+      </c>
+      <c r="AN24">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AO24">
+        <v>2.8</v>
+      </c>
+      <c r="AP24">
+        <v>1.8</v>
+      </c>
+      <c r="AQ24">
+        <v>3.8</v>
+      </c>
+      <c r="AR24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AS24">
+        <v>3.1</v>
+      </c>
+      <c r="AT24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU24">
+        <v>5.8</v>
+      </c>
+      <c r="AV24">
+        <v>7.2</v>
+      </c>
+      <c r="AW24">
+        <v>7</v>
+      </c>
+      <c r="AX24">
+        <v>7.6</v>
+      </c>
+      <c r="AY24">
+        <v>2.5</v>
+      </c>
+      <c r="AZ24">
+        <v>3</v>
+      </c>
+      <c r="BA24">
+        <v>3.7</v>
+      </c>
+      <c r="BB24">
+        <v>5.4</v>
+      </c>
+      <c r="BC24">
+        <v>2.8</v>
+      </c>
+      <c r="BD24">
+        <v>8</v>
+      </c>
+      <c r="BE24">
+        <v>6.6</v>
+      </c>
+      <c r="BF24">
+        <v>6.5</v>
+      </c>
+      <c r="BG24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="BH24">
+        <v>5.6</v>
+      </c>
+      <c r="BI24">
+        <v>7.3</v>
+      </c>
+      <c r="BJ24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="BK24">
+        <v>6.3</v>
+      </c>
+      <c r="BL24">
+        <v>5.9</v>
+      </c>
+      <c r="BM24">
+        <v>8.4</v>
+      </c>
+      <c r="BN24">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="BO24">
+        <v>7.3</v>
+      </c>
+      <c r="BP24">
+        <v>3.4</v>
+      </c>
+      <c r="BQ24">
+        <v>8.9</v>
+      </c>
+      <c r="BR24">
+        <v>4.7</v>
+      </c>
+      <c r="BS24">
+        <v>8.5</v>
+      </c>
+      <c r="BT24">
+        <v>5.4</v>
+      </c>
+      <c r="BU24">
+        <v>6.8</v>
+      </c>
+      <c r="BV24">
+        <v>7.7</v>
+      </c>
+      <c r="BW24">
+        <v>5.7</v>
+      </c>
+      <c r="BX24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="BY24">
+        <v>7.9</v>
+      </c>
+      <c r="BZ24">
+        <v>5.3</v>
+      </c>
+      <c r="CA24">
+        <v>4</v>
+      </c>
+      <c r="CB24">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25">
+        <v>2020</v>
+      </c>
+      <c r="C25">
+        <v>41.1</v>
+      </c>
+      <c r="D25">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E25">
+        <v>10.5</v>
+      </c>
+      <c r="F25">
+        <v>28.6</v>
+      </c>
+      <c r="G25">
+        <v>20.2</v>
+      </c>
+      <c r="H25">
+        <v>15.9</v>
+      </c>
+      <c r="I25">
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <v>32</v>
+      </c>
+      <c r="K25">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="L25">
+        <v>14.1</v>
+      </c>
+      <c r="M25">
+        <v>57.1</v>
+      </c>
+      <c r="N25">
+        <v>36.6</v>
+      </c>
+      <c r="O25">
+        <v>11.3</v>
+      </c>
+      <c r="P25">
+        <v>21.8</v>
+      </c>
+      <c r="Q25">
+        <v>35.5</v>
+      </c>
+      <c r="R25">
+        <v>27.8</v>
+      </c>
+      <c r="S25">
+        <v>8.4</v>
+      </c>
+      <c r="T25">
+        <v>21.6</v>
+      </c>
+      <c r="U25">
+        <v>43.1</v>
+      </c>
+      <c r="V25">
+        <v>26.2</v>
+      </c>
+      <c r="W25">
+        <v>18.8</v>
+      </c>
+      <c r="X25">
+        <v>12.3</v>
+      </c>
+      <c r="Y25">
+        <v>57.5</v>
+      </c>
+      <c r="Z25">
+        <v>49.5</v>
+      </c>
+      <c r="AA25">
+        <v>9</v>
+      </c>
+      <c r="AB25">
+        <v>59</v>
+      </c>
+      <c r="AC25">
+        <v>10.6</v>
+      </c>
+      <c r="AD25">
+        <v>8.6</v>
+      </c>
+      <c r="AE25">
+        <v>22.3</v>
+      </c>
+      <c r="AF25">
+        <v>35.9</v>
+      </c>
+      <c r="AG25">
+        <v>19.2</v>
+      </c>
+      <c r="AH25">
+        <v>16.3</v>
+      </c>
+      <c r="AI25">
+        <v>19.5</v>
+      </c>
+      <c r="AJ25">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AK25">
+        <v>77.3</v>
+      </c>
+      <c r="AL25">
+        <v>43.6</v>
+      </c>
+      <c r="AM25">
+        <v>40.5</v>
+      </c>
+      <c r="AN25">
+        <v>58.8</v>
+      </c>
+      <c r="AO25">
+        <v>82.6</v>
+      </c>
+      <c r="AP25">
+        <v>85.3</v>
+      </c>
+      <c r="AQ25">
+        <v>66</v>
+      </c>
+      <c r="AR25">
+        <v>59.2</v>
+      </c>
+      <c r="AS25">
+        <v>82.6</v>
+      </c>
+      <c r="AT25">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AU25">
+        <v>25.5</v>
+      </c>
+      <c r="AV25">
+        <v>16.3</v>
+      </c>
+      <c r="AW25">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="AX25">
+        <v>40.1</v>
+      </c>
+      <c r="AY25">
+        <v>83.2</v>
+      </c>
+      <c r="AZ25">
+        <v>77.5</v>
+      </c>
+      <c r="BA25">
+        <v>69.5</v>
+      </c>
+      <c r="BB25">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="BC25">
+        <v>77.7</v>
+      </c>
+      <c r="BD25">
+        <v>13.8</v>
+      </c>
+      <c r="BE25">
+        <v>46.5</v>
+      </c>
+      <c r="BF25">
+        <v>42.2</v>
+      </c>
+      <c r="BG25">
+        <v>37.1</v>
+      </c>
+      <c r="BH25">
+        <v>41.1</v>
+      </c>
+      <c r="BI25">
+        <v>34.6</v>
+      </c>
+      <c r="BJ25">
+        <v>30.3</v>
+      </c>
+      <c r="BK25">
+        <v>6.7</v>
+      </c>
+      <c r="BL25">
+        <v>47.2</v>
+      </c>
+      <c r="BM25">
+        <v>21.4</v>
+      </c>
+      <c r="BN25">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="BO25">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="BP25">
+        <v>10.8</v>
+      </c>
+      <c r="BQ25">
+        <v>24.3</v>
+      </c>
+      <c r="BR25">
+        <v>57.7</v>
+      </c>
+      <c r="BS25">
+        <v>26.2</v>
+      </c>
+      <c r="BT25">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="BU25">
+        <v>15.5</v>
+      </c>
+      <c r="BV25">
+        <v>10.7</v>
+      </c>
+      <c r="BW25">
+        <v>7</v>
+      </c>
+      <c r="BX25">
+        <v>12.7</v>
+      </c>
+      <c r="BY25">
+        <v>17</v>
+      </c>
+      <c r="BZ25">
+        <v>41.7</v>
+      </c>
+      <c r="CA25">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="CB25">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26">
+        <v>2020</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1898</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26">
+        <v>65</v>
+      </c>
+      <c r="H26">
+        <v>81</v>
+      </c>
+      <c r="I26">
+        <v>92</v>
+      </c>
+      <c r="J26">
+        <v>23</v>
+      </c>
+      <c r="K26">
+        <v>9</v>
+      </c>
+      <c r="L26">
+        <v>26</v>
+      </c>
+      <c r="M26">
+        <v>24</v>
+      </c>
+      <c r="N26">
+        <v>9</v>
+      </c>
+      <c r="O26">
+        <v>15</v>
+      </c>
+      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>35</v>
+      </c>
+      <c r="R26">
+        <v>48</v>
+      </c>
+      <c r="S26">
+        <v>49</v>
+      </c>
+      <c r="T26">
+        <v>12</v>
+      </c>
+      <c r="U26">
+        <v>13</v>
+      </c>
+      <c r="V26">
+        <v>23</v>
+      </c>
+      <c r="W26">
+        <v>11</v>
+      </c>
+      <c r="X26">
+        <v>13</v>
+      </c>
+      <c r="Y26">
+        <v>19</v>
+      </c>
+      <c r="Z26">
+        <v>2</v>
+      </c>
+      <c r="AA26">
+        <v>33</v>
+      </c>
+      <c r="AB26">
+        <v>11</v>
+      </c>
+      <c r="AC26">
+        <v>6</v>
+      </c>
+      <c r="AD26">
+        <v>11</v>
+      </c>
+      <c r="AE26">
+        <v>35</v>
+      </c>
+      <c r="AF26">
+        <v>25</v>
+      </c>
+      <c r="AG26">
+        <v>55</v>
+      </c>
+      <c r="AH26">
+        <v>6</v>
+      </c>
+      <c r="AI26">
+        <v>9</v>
+      </c>
+      <c r="AJ26">
+        <v>33</v>
+      </c>
+      <c r="AK26">
+        <v>9</v>
+      </c>
+      <c r="AL26">
+        <v>11</v>
+      </c>
+      <c r="AM26">
+        <v>18</v>
+      </c>
+      <c r="AN26">
+        <v>10</v>
+      </c>
+      <c r="AO26">
+        <v>20</v>
+      </c>
+      <c r="AP26">
+        <v>18</v>
+      </c>
+      <c r="AQ26">
+        <v>5</v>
+      </c>
+      <c r="AR26">
+        <v>33</v>
+      </c>
+      <c r="AS26">
+        <v>24</v>
+      </c>
+      <c r="AT26">
+        <v>12</v>
+      </c>
+      <c r="AU26">
+        <v>4</v>
+      </c>
+      <c r="AV26">
+        <v>7</v>
+      </c>
+      <c r="AW26">
+        <v>35</v>
+      </c>
+      <c r="AX26">
+        <v>13</v>
+      </c>
+      <c r="AY26">
+        <v>41</v>
+      </c>
+      <c r="AZ26">
+        <v>15</v>
+      </c>
+      <c r="BA26">
+        <v>19</v>
+      </c>
+      <c r="BB26">
+        <v>28</v>
+      </c>
+      <c r="BC26">
+        <v>11</v>
+      </c>
+      <c r="BD26">
+        <v>32</v>
+      </c>
+      <c r="BE26">
+        <v>9</v>
+      </c>
+      <c r="BF26">
+        <v>15</v>
+      </c>
+      <c r="BG26">
+        <v>3</v>
+      </c>
+      <c r="BH26">
+        <v>6</v>
+      </c>
+      <c r="BI26">
+        <v>40</v>
+      </c>
+      <c r="BJ26">
+        <v>17</v>
+      </c>
+      <c r="BK26">
+        <v>5</v>
+      </c>
+      <c r="BL26">
+        <v>15</v>
+      </c>
+      <c r="BM26">
+        <v>89</v>
+      </c>
+      <c r="BN26">
+        <v>50</v>
+      </c>
+      <c r="BO26">
+        <v>27</v>
+      </c>
+      <c r="BP26">
+        <v>20</v>
+      </c>
+      <c r="BQ26">
+        <v>85</v>
+      </c>
+      <c r="BR26">
+        <v>15</v>
+      </c>
+      <c r="BS26">
+        <v>58</v>
+      </c>
+      <c r="BT26">
+        <v>11</v>
+      </c>
+      <c r="BU26">
+        <v>19</v>
+      </c>
+      <c r="BV26">
+        <v>40</v>
+      </c>
+      <c r="BW26">
+        <v>22</v>
+      </c>
+      <c r="BX26">
+        <v>30</v>
+      </c>
+      <c r="BY26">
+        <v>58</v>
+      </c>
+      <c r="BZ26">
+        <v>29</v>
+      </c>
+      <c r="CA26">
+        <v>23</v>
+      </c>
+      <c r="CB26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27">
+        <v>2020</v>
+      </c>
+      <c r="C27">
+        <v>45.3</v>
+      </c>
+      <c r="D27">
+        <v>41.1</v>
+      </c>
+      <c r="E27">
+        <v>64.5</v>
+      </c>
+      <c r="F27">
+        <v>38.9</v>
+      </c>
+      <c r="G27">
+        <v>84.7</v>
+      </c>
+      <c r="H27">
+        <v>45.3</v>
+      </c>
+      <c r="I27">
+        <v>41.7</v>
+      </c>
+      <c r="J27">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="K27">
+        <v>42.5</v>
+      </c>
+      <c r="L27">
+        <v>53.3</v>
+      </c>
+      <c r="M27">
+        <v>84.3</v>
+      </c>
+      <c r="N27">
+        <v>48.8</v>
+      </c>
+      <c r="O27">
+        <v>50.1</v>
+      </c>
+      <c r="P27">
+        <v>55.6</v>
+      </c>
+      <c r="Q27">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="R27">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="S27">
+        <v>43.4</v>
+      </c>
+      <c r="T27">
+        <v>69.2</v>
+      </c>
+      <c r="U27">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="V27">
+        <v>77.2</v>
+      </c>
+      <c r="W27">
+        <v>23.8</v>
+      </c>
+      <c r="X27">
+        <v>70.5</v>
+      </c>
+      <c r="Y27">
+        <v>35.5</v>
+      </c>
+      <c r="Z27">
+        <v>81.5</v>
+      </c>
+      <c r="AA27">
+        <v>23.9</v>
+      </c>
+      <c r="AB27">
+        <v>91.7</v>
+      </c>
+      <c r="AC27">
+        <v>21.6</v>
+      </c>
+      <c r="AD27">
+        <v>53.6</v>
+      </c>
+      <c r="AE27">
+        <v>84.8</v>
+      </c>
+      <c r="AF27">
+        <v>27.4</v>
+      </c>
+      <c r="AG27">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="AH27">
+        <v>75.5</v>
+      </c>
+      <c r="AI27">
+        <v>50.6</v>
+      </c>
+      <c r="AJ27">
+        <v>37.6</v>
+      </c>
+      <c r="AK27">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AL27">
+        <v>50.9</v>
+      </c>
+      <c r="AM27">
+        <v>65.7</v>
+      </c>
+      <c r="AN27">
+        <v>35.1</v>
+      </c>
+      <c r="AO27">
+        <v>37.4</v>
+      </c>
+      <c r="AP27">
+        <v>45.3</v>
+      </c>
+      <c r="AQ27">
+        <v>38.4</v>
+      </c>
+      <c r="AR27">
+        <v>37</v>
+      </c>
+      <c r="AS27">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AT27">
+        <v>31.4</v>
+      </c>
+      <c r="AU27">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="AV27">
+        <v>60.3</v>
+      </c>
+      <c r="AW27">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AX27">
+        <v>82.7</v>
+      </c>
+      <c r="AY27">
+        <v>40.9</v>
+      </c>
+      <c r="AZ27">
+        <v>56.8</v>
+      </c>
+      <c r="BA27">
+        <v>36.5</v>
+      </c>
+      <c r="BB27">
+        <v>34</v>
+      </c>
+      <c r="BC27">
+        <v>57.7</v>
+      </c>
+      <c r="BD27">
+        <v>24.8</v>
+      </c>
+      <c r="BE27">
+        <v>49.8</v>
+      </c>
+      <c r="BF27">
+        <v>75.8</v>
+      </c>
+      <c r="BG27">
+        <v>24.4</v>
+      </c>
+      <c r="BH27">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="BI27">
+        <v>59.5</v>
+      </c>
+      <c r="BJ27">
+        <v>50</v>
+      </c>
+      <c r="BK27">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="BL27">
+        <v>26.1</v>
+      </c>
+      <c r="BM27">
+        <v>52.9</v>
+      </c>
+      <c r="BN27">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="BO27">
+        <v>51.4</v>
+      </c>
+      <c r="BP27">
+        <v>39.5</v>
+      </c>
+      <c r="BQ27">
+        <v>23.8</v>
+      </c>
+      <c r="BR27">
+        <v>31.6</v>
+      </c>
+      <c r="BS27">
+        <v>69.8</v>
+      </c>
+      <c r="BT27">
+        <v>13.2</v>
+      </c>
+      <c r="BU27">
+        <v>70.3</v>
+      </c>
+      <c r="BV27">
+        <v>45</v>
+      </c>
+      <c r="BW27">
+        <v>26.7</v>
+      </c>
+      <c r="BX27">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="BY27">
+        <v>62.7</v>
+      </c>
+      <c r="BZ27">
+        <v>48.5</v>
+      </c>
+      <c r="CA27">
+        <v>41.2</v>
+      </c>
+      <c r="CB27">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28">
+        <v>2020</v>
+      </c>
+      <c r="C28">
+        <v>47.4</v>
+      </c>
+      <c r="D28">
+        <v>41.1</v>
+      </c>
+      <c r="E28">
+        <v>55.4</v>
+      </c>
+      <c r="F28">
+        <v>45.3</v>
+      </c>
+      <c r="G28">
+        <v>61.5</v>
+      </c>
+      <c r="H28">
+        <v>57.9</v>
+      </c>
+      <c r="I28">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="J28">
+        <v>63.7</v>
+      </c>
+      <c r="K28">
+        <v>39.5</v>
+      </c>
+      <c r="L28">
+        <v>54.2</v>
+      </c>
+      <c r="M28">
+        <v>25.6</v>
+      </c>
+      <c r="N28">
+        <v>40.6</v>
+      </c>
+      <c r="O28">
+        <v>46.5</v>
+      </c>
+      <c r="P28">
+        <v>44.8</v>
+      </c>
+      <c r="Q28">
+        <v>55.8</v>
+      </c>
+      <c r="R28">
+        <v>58.1</v>
+      </c>
+      <c r="S28">
+        <v>61.1</v>
+      </c>
+      <c r="T28">
+        <v>47.5</v>
+      </c>
+      <c r="U28">
+        <v>50.6</v>
+      </c>
+      <c r="V28">
+        <v>42.1</v>
+      </c>
+      <c r="W28">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="X28">
+        <v>45.8</v>
+      </c>
+      <c r="Y28">
+        <v>44.6</v>
+      </c>
+      <c r="Z28">
+        <v>49.6</v>
+      </c>
+      <c r="AA28">
+        <v>66</v>
+      </c>
+      <c r="AB28">
+        <v>30.1</v>
+      </c>
+      <c r="AC28">
+        <v>61.4</v>
+      </c>
+      <c r="AD28">
+        <v>53.5</v>
+      </c>
+      <c r="AE28">
+        <v>43.4</v>
+      </c>
+      <c r="AF28">
+        <v>55</v>
+      </c>
+      <c r="AG28">
+        <v>64.2</v>
+      </c>
+      <c r="AH28">
+        <v>55.1</v>
+      </c>
+      <c r="AI28">
+        <v>49.1</v>
+      </c>
+      <c r="AJ28">
+        <v>57.6</v>
+      </c>
+      <c r="AK28">
+        <v>58.8</v>
+      </c>
+      <c r="AL28">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="AM28">
+        <v>43.6</v>
+      </c>
+      <c r="AN28">
+        <v>52.9</v>
+      </c>
+      <c r="AO28">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="AP28">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AQ28">
+        <v>41.6</v>
+      </c>
+      <c r="AR28">
+        <v>38</v>
+      </c>
+      <c r="AS28">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AT28">
+        <v>37.5</v>
+      </c>
+      <c r="AU28">
+        <v>51.7</v>
+      </c>
+      <c r="AV28">
+        <v>63.9</v>
+      </c>
+      <c r="AW28">
+        <v>53.6</v>
+      </c>
+      <c r="AX28">
+        <v>24.5</v>
+      </c>
+      <c r="AY28">
+        <v>37</v>
+      </c>
+      <c r="AZ28">
+        <v>29.5</v>
+      </c>
+      <c r="BA28">
+        <v>41.5</v>
+      </c>
+      <c r="BB28">
+        <v>55.3</v>
+      </c>
+      <c r="BC28">
+        <v>24.9</v>
+      </c>
+      <c r="BD28">
+        <v>64.3</v>
+      </c>
+      <c r="BE28">
+        <v>39.1</v>
+      </c>
+      <c r="BF28">
+        <v>48.4</v>
+      </c>
+      <c r="BG28">
+        <v>47.1</v>
+      </c>
+      <c r="BH28">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="BI28">
+        <v>43.5</v>
+      </c>
+      <c r="BJ28">
+        <v>44.3</v>
+      </c>
+      <c r="BK28">
+        <v>43</v>
+      </c>
+      <c r="BL28">
+        <v>53.8</v>
+      </c>
+      <c r="BM28">
+        <v>58.3</v>
+      </c>
+      <c r="BN28">
+        <v>51.7</v>
+      </c>
+      <c r="BO28">
+        <v>62.5</v>
+      </c>
+      <c r="BP28">
+        <v>53.1</v>
+      </c>
+      <c r="BQ28">
+        <v>55.3</v>
+      </c>
+      <c r="BR28">
+        <v>46.4</v>
+      </c>
+      <c r="BS28">
+        <v>65.5</v>
+      </c>
+      <c r="BT28">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="BU28">
+        <v>60.3</v>
+      </c>
+      <c r="BV28">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="BW28">
+        <v>72.5</v>
+      </c>
+      <c r="BX28">
+        <v>63.3</v>
+      </c>
+      <c r="BY28">
+        <v>59.4</v>
+      </c>
+      <c r="BZ28">
+        <v>50.5</v>
+      </c>
+      <c r="CA28">
+        <v>29.3</v>
+      </c>
+      <c r="CB28">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29">
+        <v>2020</v>
+      </c>
+      <c r="C29">
+        <v>17.5</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F29">
+        <v>27.1</v>
+      </c>
+      <c r="G29">
+        <v>13.2</v>
+      </c>
+      <c r="H29">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="I29">
+        <v>35.5</v>
+      </c>
+      <c r="J29">
+        <v>15.9</v>
+      </c>
+      <c r="K29">
+        <v>11.8</v>
+      </c>
+      <c r="L29">
+        <v>19.7</v>
+      </c>
+      <c r="M29">
+        <v>3.1</v>
+      </c>
+      <c r="N29">
+        <v>12</v>
+      </c>
+      <c r="O29">
+        <v>24.2</v>
+      </c>
+      <c r="P29">
+        <v>26.8</v>
+      </c>
+      <c r="Q29">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="R29">
+        <v>33.4</v>
+      </c>
+      <c r="S29">
+        <v>33</v>
+      </c>
+      <c r="T29">
+        <v>14.1</v>
+      </c>
+      <c r="U29">
+        <v>28</v>
+      </c>
+      <c r="V29">
+        <v>6.8</v>
+      </c>
+      <c r="W29">
+        <v>46</v>
+      </c>
+      <c r="X29">
+        <v>20.5</v>
+      </c>
+      <c r="Y29">
+        <v>10.5</v>
+      </c>
+      <c r="Z29">
+        <v>1.5</v>
+      </c>
+      <c r="AA29">
+        <v>48.7</v>
+      </c>
+      <c r="AB29">
+        <v>3.9</v>
+      </c>
+      <c r="AC29">
+        <v>57.4</v>
+      </c>
+      <c r="AD29">
+        <v>30.2</v>
+      </c>
+      <c r="AE29">
+        <v>8.6</v>
+      </c>
+      <c r="AF29">
+        <v>35.5</v>
+      </c>
+      <c r="AG29">
+        <v>42</v>
+      </c>
+      <c r="AH29">
+        <v>18.2</v>
+      </c>
+      <c r="AI29">
+        <v>17.3</v>
+      </c>
+      <c r="AJ29">
+        <v>31.8</v>
+      </c>
+      <c r="AK29">
+        <v>6.8</v>
+      </c>
+      <c r="AL29">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AM29">
+        <v>8.5</v>
+      </c>
+      <c r="AN29">
+        <v>19.3</v>
+      </c>
+      <c r="AO29">
+        <v>3.5</v>
+      </c>
+      <c r="AP29">
+        <v>2.8</v>
+      </c>
+      <c r="AQ29">
+        <v>6.1</v>
+      </c>
+      <c r="AR29">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AS29">
+        <v>1.9</v>
+      </c>
+      <c r="AT29">
+        <v>14.1</v>
+      </c>
+      <c r="AU29">
+        <v>16</v>
+      </c>
+      <c r="AV29">
+        <v>15.2</v>
+      </c>
+      <c r="AW29">
+        <v>13.2</v>
+      </c>
+      <c r="AX29">
+        <v>2.4</v>
+      </c>
+      <c r="AY29">
+        <v>4</v>
+      </c>
+      <c r="AZ29">
+        <v>11</v>
+      </c>
+      <c r="BA29">
+        <v>11.3</v>
+      </c>
+      <c r="BB29">
+        <v>32.4</v>
+      </c>
+      <c r="BC29">
+        <v>3.6</v>
+      </c>
+      <c r="BD29">
+        <v>45.7</v>
+      </c>
+      <c r="BE29">
+        <v>14.2</v>
+      </c>
+      <c r="BF29">
+        <v>5.4</v>
+      </c>
+      <c r="BG29">
+        <v>34</v>
+      </c>
+      <c r="BH29">
+        <v>5.8</v>
+      </c>
+      <c r="BI29">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="BJ29">
+        <v>24.8</v>
+      </c>
+      <c r="BK29">
+        <v>61.6</v>
+      </c>
+      <c r="BL29">
+        <v>17.5</v>
+      </c>
+      <c r="BM29">
+        <v>33.9</v>
+      </c>
+      <c r="BN29">
+        <v>36.9</v>
+      </c>
+      <c r="BO29">
+        <v>35</v>
+      </c>
+      <c r="BP29">
+        <v>21.9</v>
+      </c>
+      <c r="BQ29">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="BR29">
+        <v>15.4</v>
+      </c>
+      <c r="BS29">
+        <v>22.9</v>
+      </c>
+      <c r="BT29">
+        <v>43.2</v>
+      </c>
+      <c r="BU29">
+        <v>17.3</v>
+      </c>
+      <c r="BV29">
+        <v>45.5</v>
+      </c>
+      <c r="BW29">
+        <v>48.3</v>
+      </c>
+      <c r="BX29">
+        <v>15.6</v>
+      </c>
+      <c r="BY29">
+        <v>32.1</v>
+      </c>
+      <c r="BZ29">
+        <v>20.3</v>
+      </c>
+      <c r="CA29">
+        <v>7</v>
+      </c>
+      <c r="CB29">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30">
+        <v>2020</v>
+      </c>
+      <c r="C30">
+        <v>3.1</v>
+      </c>
+      <c r="D30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E30">
+        <v>1.9</v>
+      </c>
+      <c r="F30">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I30">
+        <v>5.3</v>
+      </c>
+      <c r="J30">
+        <v>4.5</v>
+      </c>
+      <c r="K30">
+        <v>3.1</v>
+      </c>
+      <c r="L30">
+        <v>3.9</v>
+      </c>
+      <c r="M30">
+        <v>1.6</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>4.8</v>
+      </c>
+      <c r="P30">
+        <v>0.9</v>
+      </c>
+      <c r="Q30">
+        <v>2.1</v>
+      </c>
+      <c r="R30">
+        <v>4.8</v>
+      </c>
+      <c r="S30">
+        <v>5.2</v>
+      </c>
+      <c r="T30">
+        <v>5.3</v>
+      </c>
+      <c r="U30">
+        <v>3.4</v>
+      </c>
+      <c r="V30">
+        <v>1.6</v>
+      </c>
+      <c r="W30">
+        <v>6.8</v>
+      </c>
+      <c r="X30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y30">
+        <v>2.5</v>
+      </c>
+      <c r="Z30">
+        <v>0.7</v>
+      </c>
+      <c r="AA30">
+        <v>9.1</v>
+      </c>
+      <c r="AB30">
+        <v>2.1</v>
+      </c>
+      <c r="AC30">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD30">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AE30">
+        <v>3.1</v>
+      </c>
+      <c r="AF30">
+        <v>3.1</v>
+      </c>
+      <c r="AG30">
+        <v>6.6</v>
+      </c>
+      <c r="AH30">
+        <v>5.5</v>
+      </c>
+      <c r="AI30">
+        <v>3.8</v>
+      </c>
+      <c r="AJ30">
+        <v>5.6</v>
+      </c>
+      <c r="AK30">
+        <v>1.3</v>
+      </c>
+      <c r="AL30">
+        <v>2.7</v>
+      </c>
+      <c r="AM30">
+        <v>3.2</v>
+      </c>
+      <c r="AN30">
+        <v>1.4</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>1.3</v>
+      </c>
+      <c r="AQ30">
+        <v>2</v>
+      </c>
+      <c r="AR30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AS30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AT30">
+        <v>2.5</v>
+      </c>
+      <c r="AU30">
+        <v>2</v>
+      </c>
+      <c r="AV30">
+        <v>4.2</v>
+      </c>
+      <c r="AW30">
+        <v>1.8</v>
+      </c>
+      <c r="AX30">
+        <v>0.7</v>
+      </c>
+      <c r="AY30">
+        <v>0.9</v>
+      </c>
+      <c r="AZ30">
+        <v>1.5</v>
+      </c>
+      <c r="BA30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB30">
+        <v>5.9</v>
+      </c>
+      <c r="BC30">
+        <v>0.8</v>
+      </c>
+      <c r="BD30">
+        <v>5</v>
+      </c>
+      <c r="BE30">
+        <v>3.7</v>
+      </c>
+      <c r="BF30">
+        <v>3</v>
+      </c>
+      <c r="BG30">
+        <v>4</v>
+      </c>
+      <c r="BH30">
+        <v>0.6</v>
+      </c>
+      <c r="BI30">
+        <v>2.1</v>
+      </c>
+      <c r="BJ30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BK30">
+        <v>7.8</v>
+      </c>
+      <c r="BL30">
+        <v>3.6</v>
+      </c>
+      <c r="BM30">
+        <v>5.2</v>
+      </c>
+      <c r="BN30">
+        <v>4</v>
+      </c>
+      <c r="BO30">
+        <v>4</v>
+      </c>
+      <c r="BP30">
+        <v>2.8</v>
+      </c>
+      <c r="BQ30">
+        <v>3.7</v>
+      </c>
+      <c r="BR30">
+        <v>3.9</v>
+      </c>
+      <c r="BS30">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="BT30">
+        <v>2.7</v>
+      </c>
+      <c r="BU30">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="BV30">
+        <v>7.8</v>
+      </c>
+      <c r="BW30">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="BX30">
+        <v>3.2</v>
+      </c>
+      <c r="BY30">
+        <v>3.3</v>
+      </c>
+      <c r="BZ30">
+        <v>4.7</v>
+      </c>
+      <c r="CA30">
+        <v>1.8</v>
+      </c>
+      <c r="CB30">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31">
+        <v>2020</v>
+      </c>
+      <c r="C31">
+        <v>10.7</v>
+      </c>
+      <c r="D31">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E31">
+        <v>13.1</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>11.8</v>
+      </c>
+      <c r="H31">
+        <v>9.1</v>
+      </c>
+      <c r="I31">
+        <v>11.9</v>
+      </c>
+      <c r="J31">
+        <v>9.9</v>
+      </c>
+      <c r="K31">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="L31">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="M31">
+        <v>2.8</v>
+      </c>
+      <c r="N31">
+        <v>10.6</v>
+      </c>
+      <c r="O31">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="P31">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Q31">
+        <v>8.1</v>
+      </c>
+      <c r="R31">
+        <v>11.6</v>
+      </c>
+      <c r="S31">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="T31">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="U31">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="V31">
+        <v>11.1</v>
+      </c>
+      <c r="W31">
+        <v>9.1</v>
+      </c>
+      <c r="X31">
+        <v>12.5</v>
+      </c>
+      <c r="Y31">
+        <v>10.4</v>
+      </c>
+      <c r="Z31">
+        <v>1.5</v>
+      </c>
+      <c r="AA31">
+        <v>15</v>
+      </c>
+      <c r="AB31">
+        <v>6.2</v>
+      </c>
+      <c r="AC31">
+        <v>8.4</v>
+      </c>
+      <c r="AD31">
+        <v>16.8</v>
+      </c>
+      <c r="AE31">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AF31">
+        <v>7.7</v>
+      </c>
+      <c r="AG31">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AH31">
+        <v>11.2</v>
+      </c>
+      <c r="AI31">
+        <v>20.5</v>
+      </c>
+      <c r="AJ31">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AK31">
+        <v>5.5</v>
+      </c>
+      <c r="AL31">
+        <v>12</v>
+      </c>
+      <c r="AM31">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AN31">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AO31">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AP31">
+        <v>3</v>
+      </c>
+      <c r="AQ31">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AR31">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AS31">
+        <v>3.4</v>
+      </c>
+      <c r="AT31">
+        <v>14.1</v>
+      </c>
+      <c r="AU31">
+        <v>13.4</v>
+      </c>
+      <c r="AV31">
+        <v>11.3</v>
+      </c>
+      <c r="AW31">
+        <v>7.6</v>
+      </c>
+      <c r="AX31">
+        <v>3.2</v>
+      </c>
+      <c r="AY31">
+        <v>2.6</v>
+      </c>
+      <c r="AZ31">
+        <v>3.3</v>
+      </c>
+      <c r="BA31">
+        <v>4.7</v>
+      </c>
+      <c r="BB31">
+        <v>21</v>
+      </c>
+      <c r="BC31">
+        <v>2.4</v>
+      </c>
+      <c r="BD31">
+        <v>11.1</v>
+      </c>
+      <c r="BE31">
+        <v>11.9</v>
+      </c>
+      <c r="BF31">
+        <v>4.7</v>
+      </c>
+      <c r="BG31">
+        <v>6.8</v>
+      </c>
+      <c r="BH31">
+        <v>18.3</v>
+      </c>
+      <c r="BI31">
+        <v>13.9</v>
+      </c>
+      <c r="BJ31">
+        <v>8.1</v>
+      </c>
+      <c r="BK31">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="BL31">
+        <v>13.3</v>
+      </c>
+      <c r="BM31">
+        <v>11.8</v>
+      </c>
+      <c r="BN31">
+        <v>10.8</v>
+      </c>
+      <c r="BO31">
+        <v>9.4</v>
+      </c>
+      <c r="BP31">
+        <v>24</v>
+      </c>
+      <c r="BQ31">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="BR31">
+        <v>10.4</v>
+      </c>
+      <c r="BS31">
+        <v>9</v>
+      </c>
+      <c r="BT31">
+        <v>10.7</v>
+      </c>
+      <c r="BU31">
+        <v>10.7</v>
+      </c>
+      <c r="BV31">
+        <v>11.4</v>
+      </c>
+      <c r="BW31">
+        <v>11.6</v>
+      </c>
+      <c r="BX31">
+        <v>10.8</v>
+      </c>
+      <c r="BY31">
+        <v>11.3</v>
+      </c>
+      <c r="BZ31">
+        <v>15.5</v>
+      </c>
+      <c r="CA31">
+        <v>5.2</v>
+      </c>
+      <c r="CB31">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32">
+        <v>2020</v>
+      </c>
+      <c r="C32" s="1">
+        <v>62097</v>
+      </c>
+      <c r="D32" s="1">
+        <v>74054.100000000006</v>
+      </c>
+      <c r="E32" s="1">
+        <v>52218</v>
+      </c>
+      <c r="F32" s="1">
+        <v>50823.7</v>
+      </c>
+      <c r="G32" s="1">
+        <v>63747.5</v>
+      </c>
+      <c r="H32" s="1">
+        <v>46225.1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>53918.2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>48105.3</v>
+      </c>
+      <c r="K32" s="1">
+        <v>77917.399999999994</v>
+      </c>
+      <c r="L32" s="1">
+        <v>60818.9</v>
+      </c>
+      <c r="M32" s="1">
+        <v>81275</v>
+      </c>
+      <c r="N32" s="1">
+        <v>52596.6</v>
+      </c>
+      <c r="O32" s="1">
+        <v>48382.1</v>
+      </c>
+      <c r="P32" s="1">
+        <v>43226.6</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>43664.1</v>
+      </c>
+      <c r="R32" s="1">
+        <v>42576.2</v>
+      </c>
+      <c r="S32" s="1">
+        <v>38820.199999999997</v>
+      </c>
+      <c r="T32" s="1">
+        <v>60394.7</v>
+      </c>
+      <c r="U32" s="1">
+        <v>39107.699999999997</v>
+      </c>
+      <c r="V32" s="1">
+        <v>69996.3</v>
+      </c>
+      <c r="W32" s="1">
+        <v>29537</v>
+      </c>
+      <c r="X32" s="1">
+        <v>44566.9</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>56418.1</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>102711.5</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>25700</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>91730.4</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>35868</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>41806</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>62557.4</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>32917.199999999997</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>33049.9</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>51424.7</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>56295.7</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>52429.9</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>46443.7</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>77080.800000000003</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>84230.1</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>49367.4</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>110863.2</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>128699.8</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>81024.800000000003</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>93714.5</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>123833.3</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>57160.2</v>
+      </c>
+      <c r="AU32" s="1">
+        <v>57043.3</v>
+      </c>
+      <c r="AV32" s="1">
+        <v>66361.8</v>
+      </c>
+      <c r="AW32" s="1">
+        <v>67781.7</v>
+      </c>
+      <c r="AX32" s="1">
+        <v>79915.600000000006</v>
+      </c>
+      <c r="AY32" s="1">
+        <v>118192.9</v>
+      </c>
+      <c r="AZ32" s="1">
+        <v>82560.5</v>
+      </c>
+      <c r="BA32" s="1">
+        <v>76671.199999999997</v>
+      </c>
+      <c r="BB32" s="1">
+        <v>38587.1</v>
+      </c>
+      <c r="BC32" s="1">
+        <v>118412</v>
+      </c>
+      <c r="BD32" s="1">
+        <v>36995.300000000003</v>
+      </c>
+      <c r="BE32" s="1">
+        <v>80296.899999999994</v>
+      </c>
+      <c r="BF32" s="1">
+        <v>85848.1</v>
+      </c>
+      <c r="BG32" s="1">
+        <v>41528.1</v>
+      </c>
+      <c r="BH32" s="1">
+        <v>72927.100000000006</v>
+      </c>
+      <c r="BI32" s="1">
+        <v>73160.3</v>
+      </c>
+      <c r="BJ32" s="1">
+        <v>40250.699999999997</v>
+      </c>
+      <c r="BK32" s="1">
+        <v>36507.300000000003</v>
+      </c>
+      <c r="BL32" s="1">
+        <v>50401.5</v>
+      </c>
+      <c r="BM32" s="1">
+        <v>44594.8</v>
+      </c>
+      <c r="BN32" s="1">
+        <v>39472.400000000001</v>
+      </c>
+      <c r="BO32" s="1">
+        <v>43636.3</v>
+      </c>
+      <c r="BP32" s="1">
+        <v>42946</v>
+      </c>
+      <c r="BQ32" s="1">
+        <v>39855.599999999999</v>
+      </c>
+      <c r="BR32" s="1">
+        <v>67152.100000000006</v>
+      </c>
+      <c r="BS32" s="1">
+        <v>63022.1</v>
+      </c>
+      <c r="BT32" s="1">
+        <v>32084.3</v>
+      </c>
+      <c r="BU32" s="1">
+        <v>51279.8</v>
+      </c>
+      <c r="BV32" s="1">
+        <v>29139.1</v>
+      </c>
+      <c r="BW32" s="1">
+        <v>27427.7</v>
+      </c>
+      <c r="BX32" s="1">
+        <v>53104.9</v>
+      </c>
+      <c r="BY32" s="1">
+        <v>44556.800000000003</v>
+      </c>
+      <c r="BZ32" s="1">
+        <v>62005.4</v>
+      </c>
+      <c r="CA32" s="1">
+        <v>106807.4</v>
+      </c>
+      <c r="CB32" s="1">
+        <v>36889.599999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>